--- a/artfynd/A 31037-2023.xlsx
+++ b/artfynd/A 31037-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111437575</v>
+        <v>111437546</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>408504.7865441007</v>
+        <v>408476.0083286518</v>
       </c>
       <c r="R2" t="n">
-        <v>6840487.477643198</v>
+        <v>6840800.195503389</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -784,7 +784,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -802,7 +802,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111437533</v>
+        <v>111437534</v>
       </c>
       <c r="B3" t="n">
         <v>78081</v>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>408508.6158578272</v>
+        <v>408525.6558820616</v>
       </c>
       <c r="R3" t="n">
-        <v>6840667.333780254</v>
+        <v>6840646.463995366</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -924,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111437544</v>
+        <v>111437583</v>
       </c>
       <c r="B4" t="n">
-        <v>77268</v>
+        <v>76495</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -940,21 +940,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>228912</v>
+        <v>6487</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>408485.0619097245</v>
+        <v>408517.6784034813</v>
       </c>
       <c r="R4" t="n">
-        <v>6840800.904364322</v>
+        <v>6840650.474504818</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111437539</v>
+        <v>111437527</v>
       </c>
       <c r="B5" t="n">
-        <v>90854</v>
+        <v>78107</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1062,21 +1062,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2079</v>
+        <v>6453</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>408501.5625366312</v>
+        <v>408525.6558820616</v>
       </c>
       <c r="R5" t="n">
-        <v>6840831.327062616</v>
+        <v>6840646.463995366</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>gammal silverlåga tall</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111437526</v>
+        <v>111437525</v>
       </c>
       <c r="B6" t="n">
         <v>78107</v>
@@ -1208,10 +1208,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>408508.6158578272</v>
+        <v>408480.7685386025</v>
       </c>
       <c r="R6" t="n">
-        <v>6840667.333780254</v>
+        <v>6840728.849301332</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111437546</v>
+        <v>111437544</v>
       </c>
       <c r="B7" t="n">
         <v>77268</v>
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>408476.0083286518</v>
+        <v>408485.0619097245</v>
       </c>
       <c r="R7" t="n">
-        <v>6840800.195503389</v>
+        <v>6840800.904364322</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111437527</v>
+        <v>111437526</v>
       </c>
       <c r="B8" t="n">
         <v>78107</v>
@@ -1452,10 +1452,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>408525.6558820616</v>
+        <v>408508.6158578272</v>
       </c>
       <c r="R8" t="n">
-        <v>6840646.463995366</v>
+        <v>6840667.333780254</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1534,10 +1534,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111437525</v>
+        <v>111437533</v>
       </c>
       <c r="B9" t="n">
-        <v>78107</v>
+        <v>78081</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1550,21 +1550,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6453</v>
+        <v>229821</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1574,10 +1574,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>408480.7685386025</v>
+        <v>408508.6158578272</v>
       </c>
       <c r="R9" t="n">
-        <v>6840728.849301332</v>
+        <v>6840667.333780254</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1656,10 +1656,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111437583</v>
+        <v>111437580</v>
       </c>
       <c r="B10" t="n">
-        <v>76495</v>
+        <v>77186</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1672,21 +1672,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6487</v>
+        <v>353</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1696,10 +1696,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>408517.6784034813</v>
+        <v>408524.7307049468</v>
       </c>
       <c r="R10" t="n">
-        <v>6840650.474504818</v>
+        <v>6840647.438207929</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111437580</v>
+        <v>111437539</v>
       </c>
       <c r="B11" t="n">
-        <v>77186</v>
+        <v>90854</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1794,21 +1794,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>353</v>
+        <v>2079</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1818,10 +1818,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>408524.7307049468</v>
+        <v>408501.5625366312</v>
       </c>
       <c r="R11" t="n">
-        <v>6840647.438207929</v>
+        <v>6840831.327062616</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>gammal silverlåga tall</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111437560</v>
+        <v>111437563</v>
       </c>
       <c r="B12" t="n">
         <v>77267</v>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>408500.915547841</v>
+        <v>408500.7703817514</v>
       </c>
       <c r="R12" t="n">
-        <v>6840735.435718091</v>
+        <v>6840479.512178969</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111437571</v>
+        <v>111437575</v>
       </c>
       <c r="B14" t="n">
         <v>77515</v>
@@ -2184,10 +2184,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>408464.2843733802</v>
+        <v>408504.7865441007</v>
       </c>
       <c r="R14" t="n">
-        <v>6840770.59519398</v>
+        <v>6840487.477643198</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2266,10 +2266,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111437534</v>
+        <v>111437560</v>
       </c>
       <c r="B15" t="n">
-        <v>78081</v>
+        <v>77267</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2282,21 +2282,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>229821</v>
+        <v>6446</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>408525.6558820616</v>
+        <v>408500.915547841</v>
       </c>
       <c r="R15" t="n">
-        <v>6840646.463995366</v>
+        <v>6840735.435718091</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2388,10 +2388,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111437563</v>
+        <v>111437571</v>
       </c>
       <c r="B16" t="n">
-        <v>77267</v>
+        <v>77515</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2404,21 +2404,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2428,10 +2428,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>408500.7703817514</v>
+        <v>408464.2843733802</v>
       </c>
       <c r="R16" t="n">
-        <v>6840479.512178969</v>
+        <v>6840770.59519398</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2622,10 +2622,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111437588</v>
+        <v>111437581</v>
       </c>
       <c r="B18" t="n">
-        <v>76918</v>
+        <v>77186</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2638,21 +2638,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6437</v>
+        <v>353</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>408678.6824911303</v>
+        <v>408863.0751639231</v>
       </c>
       <c r="R18" t="n">
-        <v>6840427.778869589</v>
+        <v>6840458.980066451</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2744,10 +2744,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111437557</v>
+        <v>111437568</v>
       </c>
       <c r="B19" t="n">
-        <v>77268</v>
+        <v>89558</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2756,25 +2756,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>228912</v>
+        <v>1503</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2784,10 +2784,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>408848.4090999375</v>
+        <v>408551.9518172013</v>
       </c>
       <c r="R19" t="n">
-        <v>6840587.571808969</v>
+        <v>6840633.894951201</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>gammal silverlåga tall</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2866,10 +2866,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111437589</v>
+        <v>111437566</v>
       </c>
       <c r="B20" t="n">
-        <v>76918</v>
+        <v>77267</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2882,21 +2882,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6437</v>
+        <v>6446</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2906,10 +2906,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>408794.2986400867</v>
+        <v>408853.6215853132</v>
       </c>
       <c r="R20" t="n">
-        <v>6840681.118731663</v>
+        <v>6840568.915807345</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -2988,10 +2988,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111437576</v>
+        <v>111437565</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>77267</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3004,21 +3004,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>408585.3398882013</v>
+        <v>408722.6859761576</v>
       </c>
       <c r="R21" t="n">
-        <v>6840440.702809069</v>
+        <v>6840473.146037632</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3110,10 +3110,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111437565</v>
+        <v>111437550</v>
       </c>
       <c r="B22" t="n">
-        <v>77267</v>
+        <v>77268</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3126,21 +3126,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6446</v>
+        <v>228912</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3150,10 +3150,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>408722.6859761576</v>
+        <v>408569.4179842397</v>
       </c>
       <c r="R22" t="n">
-        <v>6840473.146037632</v>
+        <v>6840432.103654918</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3232,10 +3232,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111437528</v>
+        <v>111437562</v>
       </c>
       <c r="B23" t="n">
-        <v>78107</v>
+        <v>77267</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3248,21 +3248,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>408590.5581813212</v>
+        <v>408585.4262771023</v>
       </c>
       <c r="R23" t="n">
-        <v>6840583.488454883</v>
+        <v>6840497.680978389</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111437586</v>
+        <v>111437536</v>
       </c>
       <c r="B24" t="n">
-        <v>76918</v>
+        <v>56543</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3370,34 +3370,46 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6437</v>
+        <v>103021</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Norr Bratteggen, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>408748.8506321483</v>
+        <v>408690.2263995201</v>
       </c>
       <c r="R24" t="n">
-        <v>6840814.316953106</v>
+        <v>6840432.69591561</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3454,11 +3466,6 @@
       <c r="AI24" t="inlineStr">
         <is>
           <t>Tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3476,10 +3483,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111437570</v>
+        <v>111437555</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3492,21 +3499,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3516,10 +3523,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>408578.7220698865</v>
+        <v>408725.9370387239</v>
       </c>
       <c r="R25" t="n">
-        <v>6840800.314614936</v>
+        <v>6840470.210822346</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3580,7 +3587,7 @@
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3598,10 +3605,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111437524</v>
+        <v>111437578</v>
       </c>
       <c r="B26" t="n">
-        <v>78107</v>
+        <v>89646</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3610,25 +3617,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6453</v>
+        <v>65</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3638,10 +3645,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>408649.5392601017</v>
+        <v>408556.755840479</v>
       </c>
       <c r="R26" t="n">
-        <v>6840816.951234321</v>
+        <v>6840402.999617545</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3702,7 +3709,7 @@
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>gammal silverlåga tall</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3720,10 +3727,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111437554</v>
+        <v>111437576</v>
       </c>
       <c r="B27" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3736,21 +3743,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3760,10 +3767,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>408667.1039417735</v>
+        <v>408585.3398882013</v>
       </c>
       <c r="R27" t="n">
-        <v>6840439.482232833</v>
+        <v>6840440.702809069</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3824,7 +3831,7 @@
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -3842,10 +3849,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111437568</v>
+        <v>111437529</v>
       </c>
       <c r="B28" t="n">
-        <v>89558</v>
+        <v>78107</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3854,25 +3861,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1503</v>
+        <v>6453</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3882,10 +3889,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>408551.9518172013</v>
+        <v>408586.1805242364</v>
       </c>
       <c r="R28" t="n">
-        <v>6840633.894951201</v>
+        <v>6840454.450850789</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3946,7 +3953,7 @@
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>gammal silverlåga tall</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -3964,10 +3971,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111437529</v>
+        <v>111437552</v>
       </c>
       <c r="B29" t="n">
-        <v>78107</v>
+        <v>77268</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3980,21 +3987,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6453</v>
+        <v>228912</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -4004,10 +4011,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>408586.1805242364</v>
+        <v>408588.7744222481</v>
       </c>
       <c r="R29" t="n">
-        <v>6840454.450850789</v>
+        <v>6840480.49802895</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4068,7 +4075,7 @@
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4086,10 +4093,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111437535</v>
+        <v>111437532</v>
       </c>
       <c r="B30" t="n">
-        <v>77614</v>
+        <v>78107</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4102,21 +4109,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>967</v>
+        <v>6453</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Varglav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Letharia vulpina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hue</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4126,10 +4133,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>408705.1153733243</v>
+        <v>408839.117529079</v>
       </c>
       <c r="R30" t="n">
-        <v>6840474.086806908</v>
+        <v>6840685.629148508</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4208,10 +4215,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111437541</v>
+        <v>111437543</v>
       </c>
       <c r="B31" t="n">
-        <v>90854</v>
+        <v>77268</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4224,21 +4231,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2079</v>
+        <v>228912</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4248,10 +4255,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>408823.4966528357</v>
+        <v>408678.7734614292</v>
       </c>
       <c r="R31" t="n">
-        <v>6840670.374265191</v>
+        <v>6840807.629276852</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4312,7 +4319,7 @@
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>gammal silverlåga tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4330,7 +4337,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111437552</v>
+        <v>111437557</v>
       </c>
       <c r="B32" t="n">
         <v>77268</v>
@@ -4370,10 +4377,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>408588.7744222481</v>
+        <v>408848.4090999375</v>
       </c>
       <c r="R32" t="n">
-        <v>6840480.49802895</v>
+        <v>6840587.571808969</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4452,7 +4459,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111437530</v>
+        <v>111437528</v>
       </c>
       <c r="B33" t="n">
         <v>78107</v>
@@ -4492,10 +4499,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>408589.7500628192</v>
+        <v>408590.5581813212</v>
       </c>
       <c r="R33" t="n">
-        <v>6840481.421792809</v>
+        <v>6840583.488454883</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4574,10 +4581,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111437585</v>
+        <v>111437554</v>
       </c>
       <c r="B34" t="n">
-        <v>76495</v>
+        <v>77268</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4590,21 +4597,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6487</v>
+        <v>228912</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4614,10 +4621,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>408625.6938663172</v>
+        <v>408667.1039417735</v>
       </c>
       <c r="R34" t="n">
-        <v>6840491.863559686</v>
+        <v>6840439.482232833</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4678,7 +4685,7 @@
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4696,7 +4703,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111437555</v>
+        <v>111437559</v>
       </c>
       <c r="B35" t="n">
         <v>77268</v>
@@ -4736,10 +4743,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>408725.9370387239</v>
+        <v>408803.229225906</v>
       </c>
       <c r="R35" t="n">
-        <v>6840470.210822346</v>
+        <v>6840695.126273939</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4818,10 +4825,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111437559</v>
+        <v>111437570</v>
       </c>
       <c r="B36" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4834,21 +4841,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4858,10 +4865,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>408803.229225906</v>
+        <v>408578.7220698865</v>
       </c>
       <c r="R36" t="n">
-        <v>6840695.126273939</v>
+        <v>6840800.314614936</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4922,7 +4929,7 @@
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -4940,10 +4947,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111437532</v>
+        <v>111437589</v>
       </c>
       <c r="B37" t="n">
-        <v>78107</v>
+        <v>76918</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4956,21 +4963,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6453</v>
+        <v>6437</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4980,10 +4987,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>408839.117529079</v>
+        <v>408794.2986400867</v>
       </c>
       <c r="R37" t="n">
-        <v>6840685.629148508</v>
+        <v>6840681.118731663</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5062,10 +5069,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111437562</v>
+        <v>111437541</v>
       </c>
       <c r="B38" t="n">
-        <v>77267</v>
+        <v>90854</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5078,21 +5085,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6446</v>
+        <v>2079</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -5102,10 +5109,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>408585.4262771023</v>
+        <v>408823.4966528357</v>
       </c>
       <c r="R38" t="n">
-        <v>6840497.680978389</v>
+        <v>6840670.374265191</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5166,7 +5173,7 @@
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>gammal silverlåga tall</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5184,10 +5191,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111437581</v>
+        <v>111437588</v>
       </c>
       <c r="B39" t="n">
-        <v>77186</v>
+        <v>76918</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5200,21 +5207,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>353</v>
+        <v>6437</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5224,10 +5231,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>408863.0751639231</v>
+        <v>408678.6824911303</v>
       </c>
       <c r="R39" t="n">
-        <v>6840458.980066451</v>
+        <v>6840427.778869589</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5306,10 +5313,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111437573</v>
+        <v>111437586</v>
       </c>
       <c r="B40" t="n">
-        <v>77515</v>
+        <v>76918</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5322,21 +5329,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>6437</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5346,10 +5353,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>408608.9995527939</v>
+        <v>408748.8506321483</v>
       </c>
       <c r="R40" t="n">
-        <v>6840561.631771022</v>
+        <v>6840814.316953106</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5410,7 +5417,7 @@
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5428,10 +5435,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111437578</v>
+        <v>111437524</v>
       </c>
       <c r="B41" t="n">
-        <v>89646</v>
+        <v>78107</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5440,25 +5447,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>65</v>
+        <v>6453</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5468,10 +5475,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>408556.755840479</v>
+        <v>408649.5392601017</v>
       </c>
       <c r="R41" t="n">
-        <v>6840402.999617545</v>
+        <v>6840816.951234321</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5532,7 +5539,7 @@
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>gammal silverlåga tall</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -5550,10 +5557,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111437566</v>
+        <v>111437537</v>
       </c>
       <c r="B42" t="n">
-        <v>77267</v>
+        <v>90670</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5562,25 +5569,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6446</v>
+        <v>4365</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5590,10 +5597,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>408853.6215853132</v>
+        <v>408804.4134729251</v>
       </c>
       <c r="R42" t="n">
-        <v>6840568.915807345</v>
+        <v>6840668.030944706</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5654,7 +5661,7 @@
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>under gammal silverlåga av tall</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5672,10 +5679,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111437537</v>
+        <v>111437530</v>
       </c>
       <c r="B43" t="n">
-        <v>90670</v>
+        <v>78107</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5684,25 +5691,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4365</v>
+        <v>6453</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5712,10 +5719,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>408804.4134729251</v>
+        <v>408589.7500628192</v>
       </c>
       <c r="R43" t="n">
-        <v>6840668.030944706</v>
+        <v>6840481.421792809</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5776,7 +5783,7 @@
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>under gammal silverlåga av tall</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -5794,10 +5801,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111437543</v>
+        <v>111437535</v>
       </c>
       <c r="B44" t="n">
-        <v>77268</v>
+        <v>77614</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5810,21 +5817,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>228912</v>
+        <v>967</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Varglav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Letharia vulpina</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hue</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5834,10 +5841,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>408678.7734614292</v>
+        <v>408705.1153733243</v>
       </c>
       <c r="R44" t="n">
-        <v>6840807.629276852</v>
+        <v>6840474.086806908</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5898,7 +5905,7 @@
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -5916,10 +5923,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111437550</v>
+        <v>111437573</v>
       </c>
       <c r="B45" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5932,21 +5939,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5956,10 +5963,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>408569.4179842397</v>
+        <v>408608.9995527939</v>
       </c>
       <c r="R45" t="n">
-        <v>6840432.103654918</v>
+        <v>6840561.631771022</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6020,7 +6027,7 @@
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6038,10 +6045,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111437536</v>
+        <v>111437585</v>
       </c>
       <c r="B46" t="n">
-        <v>56543</v>
+        <v>76495</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6054,46 +6061,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>103021</v>
+        <v>6487</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
+          <t>(Laurila) Tibell</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>Norr Bratteggen, Dlr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>408690.2263995201</v>
+        <v>408625.6938663172</v>
       </c>
       <c r="R46" t="n">
-        <v>6840432.69591561</v>
+        <v>6840491.863559686</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6150,6 +6145,11 @@
       <c r="AI46" t="inlineStr">
         <is>
           <t>Tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO46" t="inlineStr">
+        <is>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>

--- a/artfynd/A 31037-2023.xlsx
+++ b/artfynd/A 31037-2023.xlsx
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111437534</v>
+        <v>111437583</v>
       </c>
       <c r="B3" t="n">
-        <v>78081</v>
+        <v>76495</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,21 +818,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>229821</v>
+        <v>6487</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>408525.6558820616</v>
+        <v>408517.6784034813</v>
       </c>
       <c r="R3" t="n">
-        <v>6840646.463995366</v>
+        <v>6840650.474504818</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -924,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111437583</v>
+        <v>111437560</v>
       </c>
       <c r="B4" t="n">
-        <v>76495</v>
+        <v>77267</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -940,21 +940,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6487</v>
+        <v>6446</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>408517.6784034813</v>
+        <v>408500.915547841</v>
       </c>
       <c r="R4" t="n">
-        <v>6840650.474504818</v>
+        <v>6840735.435718091</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111437527</v>
+        <v>111437539</v>
       </c>
       <c r="B5" t="n">
-        <v>78107</v>
+        <v>90854</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1062,21 +1062,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6453</v>
+        <v>2079</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>408525.6558820616</v>
+        <v>408501.5625366312</v>
       </c>
       <c r="R5" t="n">
-        <v>6840646.463995366</v>
+        <v>6840831.327062616</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>gammal silverlåga tall</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111437525</v>
+        <v>111437526</v>
       </c>
       <c r="B6" t="n">
         <v>78107</v>
@@ -1208,10 +1208,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>408480.7685386025</v>
+        <v>408508.6158578272</v>
       </c>
       <c r="R6" t="n">
-        <v>6840728.849301332</v>
+        <v>6840667.333780254</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111437544</v>
+        <v>111437527</v>
       </c>
       <c r="B7" t="n">
-        <v>77268</v>
+        <v>78107</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1306,21 +1306,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>408485.0619097245</v>
+        <v>408525.6558820616</v>
       </c>
       <c r="R7" t="n">
-        <v>6840800.904364322</v>
+        <v>6840646.463995366</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1412,10 +1412,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111437526</v>
+        <v>111437534</v>
       </c>
       <c r="B8" t="n">
-        <v>78107</v>
+        <v>78081</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1428,21 +1428,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6453</v>
+        <v>229821</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1452,10 +1452,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>408508.6158578272</v>
+        <v>408525.6558820616</v>
       </c>
       <c r="R8" t="n">
-        <v>6840667.333780254</v>
+        <v>6840646.463995366</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1534,10 +1534,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111437533</v>
+        <v>111437563</v>
       </c>
       <c r="B9" t="n">
-        <v>78081</v>
+        <v>77267</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1550,21 +1550,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>229821</v>
+        <v>6446</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1574,10 +1574,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>408508.6158578272</v>
+        <v>408500.7703817514</v>
       </c>
       <c r="R9" t="n">
-        <v>6840667.333780254</v>
+        <v>6840479.512178969</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1656,10 +1656,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111437580</v>
+        <v>111437525</v>
       </c>
       <c r="B10" t="n">
-        <v>77186</v>
+        <v>78107</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1672,21 +1672,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>353</v>
+        <v>6453</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1696,10 +1696,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>408524.7307049468</v>
+        <v>408480.7685386025</v>
       </c>
       <c r="R10" t="n">
-        <v>6840647.438207929</v>
+        <v>6840728.849301332</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111437539</v>
+        <v>111437575</v>
       </c>
       <c r="B11" t="n">
-        <v>90854</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1794,21 +1794,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2079</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1818,10 +1818,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>408501.5625366312</v>
+        <v>408504.7865441007</v>
       </c>
       <c r="R11" t="n">
-        <v>6840831.327062616</v>
+        <v>6840487.477643198</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>gammal silverlåga tall</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1900,10 +1900,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111437563</v>
+        <v>111437580</v>
       </c>
       <c r="B12" t="n">
-        <v>77267</v>
+        <v>77186</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1916,21 +1916,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6446</v>
+        <v>353</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>408500.7703817514</v>
+        <v>408524.7307049468</v>
       </c>
       <c r="R12" t="n">
-        <v>6840479.512178969</v>
+        <v>6840647.438207929</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2022,10 +2022,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111437549</v>
+        <v>111437533</v>
       </c>
       <c r="B13" t="n">
-        <v>77268</v>
+        <v>78081</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2038,21 +2038,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>228912</v>
+        <v>229821</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2062,10 +2062,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>408500.8272611026</v>
+        <v>408508.6158578272</v>
       </c>
       <c r="R13" t="n">
-        <v>6840732.114453882</v>
+        <v>6840667.333780254</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2144,10 +2144,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111437575</v>
+        <v>111437544</v>
       </c>
       <c r="B14" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2160,21 +2160,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2184,10 +2184,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>408504.7865441007</v>
+        <v>408485.0619097245</v>
       </c>
       <c r="R14" t="n">
-        <v>6840487.477643198</v>
+        <v>6840800.904364322</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2266,10 +2266,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111437560</v>
+        <v>111437549</v>
       </c>
       <c r="B15" t="n">
-        <v>77267</v>
+        <v>77268</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2282,21 +2282,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6446</v>
+        <v>228912</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>408500.915547841</v>
+        <v>408500.8272611026</v>
       </c>
       <c r="R15" t="n">
-        <v>6840735.435718091</v>
+        <v>6840732.114453882</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2622,10 +2622,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111437581</v>
+        <v>111437532</v>
       </c>
       <c r="B18" t="n">
-        <v>77186</v>
+        <v>78107</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2638,21 +2638,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>353</v>
+        <v>6453</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>408863.0751639231</v>
+        <v>408839.117529079</v>
       </c>
       <c r="R18" t="n">
-        <v>6840458.980066451</v>
+        <v>6840685.629148508</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2744,10 +2744,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111437568</v>
+        <v>111437554</v>
       </c>
       <c r="B19" t="n">
-        <v>89558</v>
+        <v>77268</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2756,25 +2756,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1503</v>
+        <v>228912</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2784,10 +2784,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>408551.9518172013</v>
+        <v>408667.1039417735</v>
       </c>
       <c r="R19" t="n">
-        <v>6840633.894951201</v>
+        <v>6840439.482232833</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>gammal silverlåga tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2988,10 +2988,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111437565</v>
+        <v>111437555</v>
       </c>
       <c r="B21" t="n">
-        <v>77267</v>
+        <v>77268</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3004,21 +3004,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6446</v>
+        <v>228912</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>408722.6859761576</v>
+        <v>408725.9370387239</v>
       </c>
       <c r="R21" t="n">
-        <v>6840473.146037632</v>
+        <v>6840470.210822346</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3110,10 +3110,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111437550</v>
+        <v>111437524</v>
       </c>
       <c r="B22" t="n">
-        <v>77268</v>
+        <v>78107</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3126,21 +3126,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3150,10 +3150,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>408569.4179842397</v>
+        <v>408649.5392601017</v>
       </c>
       <c r="R22" t="n">
-        <v>6840432.103654918</v>
+        <v>6840816.951234321</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3232,10 +3232,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111437562</v>
+        <v>111437537</v>
       </c>
       <c r="B23" t="n">
-        <v>77267</v>
+        <v>90670</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3244,25 +3244,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6446</v>
+        <v>4365</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>408585.4262771023</v>
+        <v>408804.4134729251</v>
       </c>
       <c r="R23" t="n">
-        <v>6840497.680978389</v>
+        <v>6840668.030944706</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>under gammal silverlåga av tall</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111437536</v>
+        <v>111437588</v>
       </c>
       <c r="B24" t="n">
-        <v>56543</v>
+        <v>76918</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3370,46 +3370,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>103021</v>
+        <v>6437</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Norr Bratteggen, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>408690.2263995201</v>
+        <v>408678.6824911303</v>
       </c>
       <c r="R24" t="n">
-        <v>6840432.69591561</v>
+        <v>6840427.778869589</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3466,6 +3454,11 @@
       <c r="AI24" t="inlineStr">
         <is>
           <t>Tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3483,10 +3476,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111437555</v>
+        <v>111437530</v>
       </c>
       <c r="B25" t="n">
-        <v>77268</v>
+        <v>78107</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3499,21 +3492,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3523,10 +3516,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>408725.9370387239</v>
+        <v>408589.7500628192</v>
       </c>
       <c r="R25" t="n">
-        <v>6840470.210822346</v>
+        <v>6840481.421792809</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3587,7 +3580,7 @@
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3605,10 +3598,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111437578</v>
+        <v>111437573</v>
       </c>
       <c r="B26" t="n">
-        <v>89646</v>
+        <v>77515</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3617,25 +3610,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>65</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3645,10 +3638,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>408556.755840479</v>
+        <v>408608.9995527939</v>
       </c>
       <c r="R26" t="n">
-        <v>6840402.999617545</v>
+        <v>6840561.631771022</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3709,7 +3702,7 @@
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>gammal silverlåga tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3727,10 +3720,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111437576</v>
+        <v>111437529</v>
       </c>
       <c r="B27" t="n">
-        <v>77515</v>
+        <v>78107</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3743,21 +3736,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3767,10 +3760,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>408585.3398882013</v>
+        <v>408586.1805242364</v>
       </c>
       <c r="R27" t="n">
-        <v>6840440.702809069</v>
+        <v>6840454.450850789</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3831,7 +3824,7 @@
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -3849,10 +3842,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111437529</v>
+        <v>111437585</v>
       </c>
       <c r="B28" t="n">
-        <v>78107</v>
+        <v>76495</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3865,21 +3858,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6453</v>
+        <v>6487</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3889,10 +3882,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>408586.1805242364</v>
+        <v>408625.6938663172</v>
       </c>
       <c r="R28" t="n">
-        <v>6840454.450850789</v>
+        <v>6840491.863559686</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3971,10 +3964,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111437552</v>
+        <v>111437536</v>
       </c>
       <c r="B29" t="n">
-        <v>77268</v>
+        <v>56543</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3987,34 +3980,46 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>228912</v>
+        <v>103021</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Norr Bratteggen, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>408588.7744222481</v>
+        <v>408690.2263995201</v>
       </c>
       <c r="R29" t="n">
-        <v>6840480.49802895</v>
+        <v>6840432.69591561</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4071,11 +4076,6 @@
       <c r="AI29" t="inlineStr">
         <is>
           <t>Tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4093,10 +4093,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111437532</v>
+        <v>111437589</v>
       </c>
       <c r="B30" t="n">
-        <v>78107</v>
+        <v>76918</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4109,21 +4109,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6453</v>
+        <v>6437</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4133,10 +4133,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>408839.117529079</v>
+        <v>408794.2986400867</v>
       </c>
       <c r="R30" t="n">
-        <v>6840685.629148508</v>
+        <v>6840681.118731663</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111437543</v>
+        <v>111437559</v>
       </c>
       <c r="B31" t="n">
         <v>77268</v>
@@ -4255,10 +4255,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>408678.7734614292</v>
+        <v>408803.229225906</v>
       </c>
       <c r="R31" t="n">
-        <v>6840807.629276852</v>
+        <v>6840695.126273939</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4337,10 +4337,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111437557</v>
+        <v>111437578</v>
       </c>
       <c r="B32" t="n">
-        <v>77268</v>
+        <v>89646</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4349,25 +4349,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>228912</v>
+        <v>65</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4377,10 +4377,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>408848.4090999375</v>
+        <v>408556.755840479</v>
       </c>
       <c r="R32" t="n">
-        <v>6840587.571808969</v>
+        <v>6840402.999617545</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>gammal silverlåga tall</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4459,10 +4459,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111437528</v>
+        <v>111437552</v>
       </c>
       <c r="B33" t="n">
-        <v>78107</v>
+        <v>77268</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4475,21 +4475,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6453</v>
+        <v>228912</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4499,10 +4499,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>408590.5581813212</v>
+        <v>408588.7744222481</v>
       </c>
       <c r="R33" t="n">
-        <v>6840583.488454883</v>
+        <v>6840480.49802895</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4581,10 +4581,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111437554</v>
+        <v>111437568</v>
       </c>
       <c r="B34" t="n">
-        <v>77268</v>
+        <v>89558</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4593,25 +4593,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>228912</v>
+        <v>1503</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4621,10 +4621,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>408667.1039417735</v>
+        <v>408551.9518172013</v>
       </c>
       <c r="R34" t="n">
-        <v>6840439.482232833</v>
+        <v>6840633.894951201</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>gammal silverlåga tall</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4703,10 +4703,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111437559</v>
+        <v>111437581</v>
       </c>
       <c r="B35" t="n">
-        <v>77268</v>
+        <v>77186</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4719,21 +4719,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>228912</v>
+        <v>353</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4743,10 +4743,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>408803.229225906</v>
+        <v>408863.0751639231</v>
       </c>
       <c r="R35" t="n">
-        <v>6840695.126273939</v>
+        <v>6840458.980066451</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111437570</v>
+        <v>111437576</v>
       </c>
       <c r="B36" t="n">
         <v>77515</v>
@@ -4865,10 +4865,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>408578.7220698865</v>
+        <v>408585.3398882013</v>
       </c>
       <c r="R36" t="n">
-        <v>6840800.314614936</v>
+        <v>6840440.702809069</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4947,10 +4947,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111437589</v>
+        <v>111437557</v>
       </c>
       <c r="B37" t="n">
-        <v>76918</v>
+        <v>77268</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4963,21 +4963,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6437</v>
+        <v>228912</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>408794.2986400867</v>
+        <v>408848.4090999375</v>
       </c>
       <c r="R37" t="n">
-        <v>6840681.118731663</v>
+        <v>6840587.571808969</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5051,7 +5051,7 @@
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5069,10 +5069,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111437541</v>
+        <v>111437543</v>
       </c>
       <c r="B38" t="n">
-        <v>90854</v>
+        <v>77268</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5085,21 +5085,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2079</v>
+        <v>228912</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -5109,10 +5109,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>408823.4966528357</v>
+        <v>408678.7734614292</v>
       </c>
       <c r="R38" t="n">
-        <v>6840670.374265191</v>
+        <v>6840807.629276852</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>gammal silverlåga tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111437588</v>
+        <v>111437586</v>
       </c>
       <c r="B39" t="n">
         <v>76918</v>
@@ -5231,10 +5231,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>408678.6824911303</v>
+        <v>408748.8506321483</v>
       </c>
       <c r="R39" t="n">
-        <v>6840427.778869589</v>
+        <v>6840814.316953106</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5313,10 +5313,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111437586</v>
+        <v>111437562</v>
       </c>
       <c r="B40" t="n">
-        <v>76918</v>
+        <v>77267</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5329,21 +5329,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6437</v>
+        <v>6446</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5353,10 +5353,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>408748.8506321483</v>
+        <v>408585.4262771023</v>
       </c>
       <c r="R40" t="n">
-        <v>6840814.316953106</v>
+        <v>6840497.680978389</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5435,10 +5435,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111437524</v>
+        <v>111437570</v>
       </c>
       <c r="B41" t="n">
-        <v>78107</v>
+        <v>77515</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5451,21 +5451,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5475,10 +5475,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>408649.5392601017</v>
+        <v>408578.7220698865</v>
       </c>
       <c r="R41" t="n">
-        <v>6840816.951234321</v>
+        <v>6840800.314614936</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5539,7 +5539,7 @@
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -5557,10 +5557,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111437537</v>
+        <v>111437535</v>
       </c>
       <c r="B42" t="n">
-        <v>90670</v>
+        <v>77614</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5569,25 +5569,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4365</v>
+        <v>967</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Varglav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Letharia vulpina</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(L.) Hue</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5597,10 +5597,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>408804.4134729251</v>
+        <v>408705.1153733243</v>
       </c>
       <c r="R42" t="n">
-        <v>6840668.030944706</v>
+        <v>6840474.086806908</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>under gammal silverlåga av tall</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111437530</v>
+        <v>111437531</v>
       </c>
       <c r="B43" t="n">
         <v>78107</v>
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>408589.7500628192</v>
+        <v>408794.2734963132</v>
       </c>
       <c r="R43" t="n">
-        <v>6840481.421792809</v>
+        <v>6840680.169785046</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5801,10 +5801,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111437535</v>
+        <v>111437541</v>
       </c>
       <c r="B44" t="n">
-        <v>77614</v>
+        <v>90854</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5817,21 +5817,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>967</v>
+        <v>2079</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Varglav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Letharia vulpina</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Hue</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5841,10 +5841,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>408705.1153733243</v>
+        <v>408823.4966528357</v>
       </c>
       <c r="R44" t="n">
-        <v>6840474.086806908</v>
+        <v>6840670.374265191</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5905,7 +5905,7 @@
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>gammal silverlåga tall</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -5923,10 +5923,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111437573</v>
+        <v>111437550</v>
       </c>
       <c r="B45" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5939,21 +5939,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>408608.9995527939</v>
+        <v>408569.4179842397</v>
       </c>
       <c r="R45" t="n">
-        <v>6840561.631771022</v>
+        <v>6840432.103654918</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6027,7 +6027,7 @@
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6045,10 +6045,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111437585</v>
+        <v>111437565</v>
       </c>
       <c r="B46" t="n">
-        <v>76495</v>
+        <v>77267</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6061,21 +6061,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6487</v>
+        <v>6446</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -6085,10 +6085,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>408625.6938663172</v>
+        <v>408722.6859761576</v>
       </c>
       <c r="R46" t="n">
-        <v>6840491.863559686</v>
+        <v>6840473.146037632</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111437531</v>
+        <v>111437528</v>
       </c>
       <c r="B47" t="n">
         <v>78107</v>
@@ -6207,10 +6207,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>408794.2734963132</v>
+        <v>408590.5581813212</v>
       </c>
       <c r="R47" t="n">
-        <v>6840680.169785046</v>
+        <v>6840583.488454883</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>

--- a/artfynd/A 31037-2023.xlsx
+++ b/artfynd/A 31037-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111437546</v>
+        <v>111437527</v>
       </c>
       <c r="B2" t="n">
-        <v>77268</v>
+        <v>78107</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>408476.0083286518</v>
+        <v>408525.6558820616</v>
       </c>
       <c r="R2" t="n">
-        <v>6840800.195503389</v>
+        <v>6840646.463995366</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -784,7 +784,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111437583</v>
+        <v>111437580</v>
       </c>
       <c r="B3" t="n">
-        <v>76495</v>
+        <v>77186</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,21 +818,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6487</v>
+        <v>353</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>408517.6784034813</v>
+        <v>408524.7307049468</v>
       </c>
       <c r="R3" t="n">
-        <v>6840650.474504818</v>
+        <v>6840647.438207929</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -924,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111437560</v>
+        <v>111437526</v>
       </c>
       <c r="B4" t="n">
-        <v>77267</v>
+        <v>78107</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -940,21 +940,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6446</v>
+        <v>6453</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>408500.915547841</v>
+        <v>408508.6158578272</v>
       </c>
       <c r="R4" t="n">
-        <v>6840735.435718091</v>
+        <v>6840667.333780254</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111437539</v>
+        <v>111437560</v>
       </c>
       <c r="B5" t="n">
-        <v>90854</v>
+        <v>77267</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1062,21 +1062,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2079</v>
+        <v>6446</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>408501.5625366312</v>
+        <v>408500.915547841</v>
       </c>
       <c r="R5" t="n">
-        <v>6840831.327062616</v>
+        <v>6840735.435718091</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>gammal silverlåga tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111437526</v>
+        <v>111437563</v>
       </c>
       <c r="B6" t="n">
-        <v>78107</v>
+        <v>77267</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1184,21 +1184,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1208,10 +1208,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>408508.6158578272</v>
+        <v>408500.7703817514</v>
       </c>
       <c r="R6" t="n">
-        <v>6840667.333780254</v>
+        <v>6840479.512178969</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111437527</v>
+        <v>111437525</v>
       </c>
       <c r="B7" t="n">
         <v>78107</v>
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>408525.6558820616</v>
+        <v>408480.7685386025</v>
       </c>
       <c r="R7" t="n">
-        <v>6840646.463995366</v>
+        <v>6840728.849301332</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1412,10 +1412,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111437534</v>
+        <v>111437546</v>
       </c>
       <c r="B8" t="n">
-        <v>78081</v>
+        <v>77268</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1428,21 +1428,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>229821</v>
+        <v>228912</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1452,10 +1452,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>408525.6558820616</v>
+        <v>408476.0083286518</v>
       </c>
       <c r="R8" t="n">
-        <v>6840646.463995366</v>
+        <v>6840800.195503389</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1534,10 +1534,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111437563</v>
+        <v>111437534</v>
       </c>
       <c r="B9" t="n">
-        <v>77267</v>
+        <v>78081</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1550,21 +1550,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6446</v>
+        <v>229821</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1574,10 +1574,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>408500.7703817514</v>
+        <v>408525.6558820616</v>
       </c>
       <c r="R9" t="n">
-        <v>6840479.512178969</v>
+        <v>6840646.463995366</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1656,10 +1656,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111437525</v>
+        <v>111437544</v>
       </c>
       <c r="B10" t="n">
-        <v>78107</v>
+        <v>77268</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1672,21 +1672,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6453</v>
+        <v>228912</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1696,10 +1696,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>408480.7685386025</v>
+        <v>408485.0619097245</v>
       </c>
       <c r="R10" t="n">
-        <v>6840728.849301332</v>
+        <v>6840800.904364322</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111437575</v>
+        <v>111437583</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>76495</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1794,21 +1794,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>6487</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1818,10 +1818,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>408504.7865441007</v>
+        <v>408517.6784034813</v>
       </c>
       <c r="R11" t="n">
-        <v>6840487.477643198</v>
+        <v>6840650.474504818</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1900,10 +1900,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111437580</v>
+        <v>111437533</v>
       </c>
       <c r="B12" t="n">
-        <v>77186</v>
+        <v>78081</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1916,21 +1916,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>353</v>
+        <v>229821</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>408524.7307049468</v>
+        <v>408508.6158578272</v>
       </c>
       <c r="R12" t="n">
-        <v>6840647.438207929</v>
+        <v>6840667.333780254</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2022,10 +2022,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111437533</v>
+        <v>111437539</v>
       </c>
       <c r="B13" t="n">
-        <v>78081</v>
+        <v>90854</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2038,21 +2038,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>229821</v>
+        <v>2079</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2062,10 +2062,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>408508.6158578272</v>
+        <v>408501.5625366312</v>
       </c>
       <c r="R13" t="n">
-        <v>6840667.333780254</v>
+        <v>6840831.327062616</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>gammal silverlåga tall</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2144,10 +2144,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111437544</v>
+        <v>111437575</v>
       </c>
       <c r="B14" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2160,21 +2160,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2184,10 +2184,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>408485.0619097245</v>
+        <v>408504.7865441007</v>
       </c>
       <c r="R14" t="n">
-        <v>6840800.904364322</v>
+        <v>6840487.477643198</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2622,10 +2622,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111437532</v>
+        <v>111437537</v>
       </c>
       <c r="B18" t="n">
-        <v>78107</v>
+        <v>90670</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2634,25 +2634,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6453</v>
+        <v>4365</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>408839.117529079</v>
+        <v>408804.4134729251</v>
       </c>
       <c r="R18" t="n">
-        <v>6840685.629148508</v>
+        <v>6840668.030944706</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>under gammal silverlåga av tall</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2744,10 +2744,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111437554</v>
+        <v>111437576</v>
       </c>
       <c r="B19" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2760,21 +2760,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2784,10 +2784,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>408667.1039417735</v>
+        <v>408585.3398882013</v>
       </c>
       <c r="R19" t="n">
-        <v>6840439.482232833</v>
+        <v>6840440.702809069</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2866,10 +2866,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111437566</v>
+        <v>111437586</v>
       </c>
       <c r="B20" t="n">
-        <v>77267</v>
+        <v>76918</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2882,21 +2882,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6446</v>
+        <v>6437</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2906,10 +2906,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>408853.6215853132</v>
+        <v>408748.8506321483</v>
       </c>
       <c r="R20" t="n">
-        <v>6840568.915807345</v>
+        <v>6840814.316953106</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -2988,10 +2988,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111437555</v>
+        <v>111437541</v>
       </c>
       <c r="B21" t="n">
-        <v>77268</v>
+        <v>90854</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3004,21 +3004,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>228912</v>
+        <v>2079</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>408725.9370387239</v>
+        <v>408823.4966528357</v>
       </c>
       <c r="R21" t="n">
-        <v>6840470.210822346</v>
+        <v>6840670.374265191</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>gammal silverlåga tall</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3110,10 +3110,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111437524</v>
+        <v>111437552</v>
       </c>
       <c r="B22" t="n">
-        <v>78107</v>
+        <v>77268</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3126,21 +3126,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6453</v>
+        <v>228912</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3150,10 +3150,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>408649.5392601017</v>
+        <v>408588.7744222481</v>
       </c>
       <c r="R22" t="n">
-        <v>6840816.951234321</v>
+        <v>6840480.49802895</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3232,10 +3232,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111437537</v>
+        <v>111437550</v>
       </c>
       <c r="B23" t="n">
-        <v>90670</v>
+        <v>77268</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3244,25 +3244,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4365</v>
+        <v>228912</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>408804.4134729251</v>
+        <v>408569.4179842397</v>
       </c>
       <c r="R23" t="n">
-        <v>6840668.030944706</v>
+        <v>6840432.103654918</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>under gammal silverlåga av tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111437588</v>
+        <v>111437581</v>
       </c>
       <c r="B24" t="n">
-        <v>76918</v>
+        <v>77186</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3370,21 +3370,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6437</v>
+        <v>353</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3394,10 +3394,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>408678.6824911303</v>
+        <v>408863.0751639231</v>
       </c>
       <c r="R24" t="n">
-        <v>6840427.778869589</v>
+        <v>6840458.980066451</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3476,7 +3476,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111437530</v>
+        <v>111437532</v>
       </c>
       <c r="B25" t="n">
         <v>78107</v>
@@ -3516,10 +3516,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>408589.7500628192</v>
+        <v>408839.117529079</v>
       </c>
       <c r="R25" t="n">
-        <v>6840481.421792809</v>
+        <v>6840685.629148508</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3598,10 +3598,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111437573</v>
+        <v>111437530</v>
       </c>
       <c r="B26" t="n">
-        <v>77515</v>
+        <v>78107</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3614,21 +3614,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3638,10 +3638,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>408608.9995527939</v>
+        <v>408589.7500628192</v>
       </c>
       <c r="R26" t="n">
-        <v>6840561.631771022</v>
+        <v>6840481.421792809</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3720,10 +3720,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111437529</v>
+        <v>111437562</v>
       </c>
       <c r="B27" t="n">
-        <v>78107</v>
+        <v>77267</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3736,21 +3736,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3760,10 +3760,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>408586.1805242364</v>
+        <v>408585.4262771023</v>
       </c>
       <c r="R27" t="n">
-        <v>6840454.450850789</v>
+        <v>6840497.680978389</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -3842,10 +3842,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111437585</v>
+        <v>111437543</v>
       </c>
       <c r="B28" t="n">
-        <v>76495</v>
+        <v>77268</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3858,21 +3858,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6487</v>
+        <v>228912</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3882,10 +3882,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>408625.6938663172</v>
+        <v>408678.7734614292</v>
       </c>
       <c r="R28" t="n">
-        <v>6840491.863559686</v>
+        <v>6840807.629276852</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -3964,10 +3964,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111437536</v>
+        <v>111437531</v>
       </c>
       <c r="B29" t="n">
-        <v>56543</v>
+        <v>78107</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3980,46 +3980,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>103021</v>
+        <v>6453</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Norr Bratteggen, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>408690.2263995201</v>
+        <v>408794.2734963132</v>
       </c>
       <c r="R29" t="n">
-        <v>6840432.69591561</v>
+        <v>6840680.169785046</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4076,6 +4064,11 @@
       <c r="AI29" t="inlineStr">
         <is>
           <t>Tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4093,10 +4086,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111437589</v>
+        <v>111437535</v>
       </c>
       <c r="B30" t="n">
-        <v>76918</v>
+        <v>77614</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4109,21 +4102,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6437</v>
+        <v>967</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Varglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Letharia vulpina</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(L.) Hue</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4133,10 +4126,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>408794.2986400867</v>
+        <v>408705.1153733243</v>
       </c>
       <c r="R30" t="n">
-        <v>6840681.118731663</v>
+        <v>6840474.086806908</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4215,7 +4208,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111437559</v>
+        <v>111437555</v>
       </c>
       <c r="B31" t="n">
         <v>77268</v>
@@ -4255,10 +4248,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>408803.229225906</v>
+        <v>408725.9370387239</v>
       </c>
       <c r="R31" t="n">
-        <v>6840695.126273939</v>
+        <v>6840470.210822346</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4337,10 +4330,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111437578</v>
+        <v>111437554</v>
       </c>
       <c r="B32" t="n">
-        <v>89646</v>
+        <v>77268</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4349,25 +4342,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>65</v>
+        <v>228912</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4377,10 +4370,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>408556.755840479</v>
+        <v>408667.1039417735</v>
       </c>
       <c r="R32" t="n">
-        <v>6840402.999617545</v>
+        <v>6840439.482232833</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4441,7 +4434,7 @@
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>gammal silverlåga tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4459,10 +4452,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111437552</v>
+        <v>111437565</v>
       </c>
       <c r="B33" t="n">
-        <v>77268</v>
+        <v>77267</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4475,21 +4468,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>228912</v>
+        <v>6446</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4499,10 +4492,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>408588.7744222481</v>
+        <v>408722.6859761576</v>
       </c>
       <c r="R33" t="n">
-        <v>6840480.49802895</v>
+        <v>6840473.146037632</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4581,10 +4574,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111437568</v>
+        <v>111437585</v>
       </c>
       <c r="B34" t="n">
-        <v>89558</v>
+        <v>76495</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4593,25 +4586,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1503</v>
+        <v>6487</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4621,10 +4614,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>408551.9518172013</v>
+        <v>408625.6938663172</v>
       </c>
       <c r="R34" t="n">
-        <v>6840633.894951201</v>
+        <v>6840491.863559686</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4685,7 +4678,7 @@
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>gammal silverlåga tall</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4703,10 +4696,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111437581</v>
+        <v>111437568</v>
       </c>
       <c r="B35" t="n">
-        <v>77186</v>
+        <v>89558</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4715,25 +4708,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>353</v>
+        <v>1503</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4743,10 +4736,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>408863.0751639231</v>
+        <v>408551.9518172013</v>
       </c>
       <c r="R35" t="n">
-        <v>6840458.980066451</v>
+        <v>6840633.894951201</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4807,7 +4800,7 @@
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>gammal silverlåga tall</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -4825,10 +4818,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111437576</v>
+        <v>111437578</v>
       </c>
       <c r="B36" t="n">
-        <v>77515</v>
+        <v>89646</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4837,25 +4830,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>65</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4865,10 +4858,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>408585.3398882013</v>
+        <v>408556.755840479</v>
       </c>
       <c r="R36" t="n">
-        <v>6840440.702809069</v>
+        <v>6840402.999617545</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4929,7 +4922,7 @@
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gammal silverlåga tall</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -4947,10 +4940,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111437557</v>
+        <v>111437589</v>
       </c>
       <c r="B37" t="n">
-        <v>77268</v>
+        <v>76918</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4963,21 +4956,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>228912</v>
+        <v>6437</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4987,10 +4980,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>408848.4090999375</v>
+        <v>408794.2986400867</v>
       </c>
       <c r="R37" t="n">
-        <v>6840587.571808969</v>
+        <v>6840681.118731663</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5051,7 +5044,7 @@
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5069,10 +5062,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111437543</v>
+        <v>111437529</v>
       </c>
       <c r="B38" t="n">
-        <v>77268</v>
+        <v>78107</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5085,21 +5078,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -5109,10 +5102,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>408678.7734614292</v>
+        <v>408586.1805242364</v>
       </c>
       <c r="R38" t="n">
-        <v>6840807.629276852</v>
+        <v>6840454.450850789</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5173,7 +5166,7 @@
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5191,10 +5184,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111437586</v>
+        <v>111437566</v>
       </c>
       <c r="B39" t="n">
-        <v>76918</v>
+        <v>77267</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5207,21 +5200,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6437</v>
+        <v>6446</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5231,10 +5224,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>408748.8506321483</v>
+        <v>408853.6215853132</v>
       </c>
       <c r="R39" t="n">
-        <v>6840814.316953106</v>
+        <v>6840568.915807345</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5295,7 +5288,7 @@
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5313,10 +5306,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111437562</v>
+        <v>111437557</v>
       </c>
       <c r="B40" t="n">
-        <v>77267</v>
+        <v>77268</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5329,21 +5322,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6446</v>
+        <v>228912</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5353,10 +5346,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>408585.4262771023</v>
+        <v>408848.4090999375</v>
       </c>
       <c r="R40" t="n">
-        <v>6840497.680978389</v>
+        <v>6840587.571808969</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5435,10 +5428,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111437570</v>
+        <v>111437524</v>
       </c>
       <c r="B41" t="n">
-        <v>77515</v>
+        <v>78107</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5451,21 +5444,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5475,10 +5468,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>408578.7220698865</v>
+        <v>408649.5392601017</v>
       </c>
       <c r="R41" t="n">
-        <v>6840800.314614936</v>
+        <v>6840816.951234321</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5539,7 +5532,7 @@
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -5557,10 +5550,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111437535</v>
+        <v>111437573</v>
       </c>
       <c r="B42" t="n">
-        <v>77614</v>
+        <v>77515</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5573,21 +5566,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>967</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Varglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Letharia vulpina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Hue</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5597,10 +5590,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>408705.1153733243</v>
+        <v>408608.9995527939</v>
       </c>
       <c r="R42" t="n">
-        <v>6840474.086806908</v>
+        <v>6840561.631771022</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5661,7 +5654,7 @@
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5679,10 +5672,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111437531</v>
+        <v>111437570</v>
       </c>
       <c r="B43" t="n">
-        <v>78107</v>
+        <v>77515</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5695,21 +5688,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5719,10 +5712,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>408794.2734963132</v>
+        <v>408578.7220698865</v>
       </c>
       <c r="R43" t="n">
-        <v>6840680.169785046</v>
+        <v>6840800.314614936</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5783,7 +5776,7 @@
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -5801,10 +5794,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111437541</v>
+        <v>111437536</v>
       </c>
       <c r="B44" t="n">
-        <v>90854</v>
+        <v>56543</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5817,34 +5810,46 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2079</v>
+        <v>103021</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Norr Bratteggen, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>408823.4966528357</v>
+        <v>408690.2263995201</v>
       </c>
       <c r="R44" t="n">
-        <v>6840670.374265191</v>
+        <v>6840432.69591561</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5901,11 +5906,6 @@
       <c r="AI44" t="inlineStr">
         <is>
           <t>Tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO44" t="inlineStr">
-        <is>
-          <t>gammal silverlåga tall</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -5923,7 +5923,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111437550</v>
+        <v>111437559</v>
       </c>
       <c r="B45" t="n">
         <v>77268</v>
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>408569.4179842397</v>
+        <v>408803.229225906</v>
       </c>
       <c r="R45" t="n">
-        <v>6840432.103654918</v>
+        <v>6840695.126273939</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6045,10 +6045,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111437565</v>
+        <v>111437588</v>
       </c>
       <c r="B46" t="n">
-        <v>77267</v>
+        <v>76918</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6061,21 +6061,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6446</v>
+        <v>6437</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -6085,10 +6085,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>408722.6859761576</v>
+        <v>408678.6824911303</v>
       </c>
       <c r="R46" t="n">
-        <v>6840473.146037632</v>
+        <v>6840427.778869589</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>

--- a/artfynd/A 31037-2023.xlsx
+++ b/artfynd/A 31037-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111437527</v>
+        <v>111437560</v>
       </c>
       <c r="B2" t="n">
-        <v>78107</v>
+        <v>77267</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>408525.6558820616</v>
+        <v>408500.915547841</v>
       </c>
       <c r="R2" t="n">
-        <v>6840646.463995366</v>
+        <v>6840735.435718091</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -784,7 +784,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111437580</v>
+        <v>111437563</v>
       </c>
       <c r="B3" t="n">
-        <v>77186</v>
+        <v>77267</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,21 +818,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>353</v>
+        <v>6446</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>408524.7307049468</v>
+        <v>408500.7703817514</v>
       </c>
       <c r="R3" t="n">
-        <v>6840647.438207929</v>
+        <v>6840479.512178969</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -906,7 +906,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -924,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111437526</v>
+        <v>111437544</v>
       </c>
       <c r="B4" t="n">
-        <v>78107</v>
+        <v>77268</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -940,21 +940,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6453</v>
+        <v>228912</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>408508.6158578272</v>
+        <v>408485.0619097245</v>
       </c>
       <c r="R4" t="n">
-        <v>6840667.333780254</v>
+        <v>6840800.904364322</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111437560</v>
+        <v>111437525</v>
       </c>
       <c r="B5" t="n">
-        <v>77267</v>
+        <v>78107</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1062,21 +1062,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6446</v>
+        <v>6453</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>408500.915547841</v>
+        <v>408480.7685386025</v>
       </c>
       <c r="R5" t="n">
-        <v>6840735.435718091</v>
+        <v>6840728.849301332</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111437563</v>
+        <v>111437580</v>
       </c>
       <c r="B6" t="n">
-        <v>77267</v>
+        <v>77186</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1184,21 +1184,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6446</v>
+        <v>353</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1208,10 +1208,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>408500.7703817514</v>
+        <v>408524.7307049468</v>
       </c>
       <c r="R6" t="n">
-        <v>6840479.512178969</v>
+        <v>6840647.438207929</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111437525</v>
+        <v>111437546</v>
       </c>
       <c r="B7" t="n">
-        <v>78107</v>
+        <v>77268</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1306,21 +1306,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6453</v>
+        <v>228912</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>408480.7685386025</v>
+        <v>408476.0083286518</v>
       </c>
       <c r="R7" t="n">
-        <v>6840728.849301332</v>
+        <v>6840800.195503389</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1412,10 +1412,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111437546</v>
+        <v>111437571</v>
       </c>
       <c r="B8" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1428,21 +1428,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1452,10 +1452,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>408476.0083286518</v>
+        <v>408464.2843733802</v>
       </c>
       <c r="R8" t="n">
-        <v>6840800.195503389</v>
+        <v>6840770.59519398</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1534,10 +1534,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111437534</v>
+        <v>111437527</v>
       </c>
       <c r="B9" t="n">
-        <v>78081</v>
+        <v>78107</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1550,21 +1550,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>229821</v>
+        <v>6453</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111437544</v>
+        <v>111437549</v>
       </c>
       <c r="B10" t="n">
         <v>77268</v>
@@ -1696,10 +1696,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>408485.0619097245</v>
+        <v>408500.8272611026</v>
       </c>
       <c r="R10" t="n">
-        <v>6840800.904364322</v>
+        <v>6840732.114453882</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111437583</v>
+        <v>111437533</v>
       </c>
       <c r="B11" t="n">
-        <v>76495</v>
+        <v>78081</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1794,21 +1794,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6487</v>
+        <v>229821</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1818,10 +1818,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>408517.6784034813</v>
+        <v>408508.6158578272</v>
       </c>
       <c r="R11" t="n">
-        <v>6840650.474504818</v>
+        <v>6840667.333780254</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111437533</v>
+        <v>111437534</v>
       </c>
       <c r="B12" t="n">
         <v>78081</v>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>408508.6158578272</v>
+        <v>408525.6558820616</v>
       </c>
       <c r="R12" t="n">
-        <v>6840667.333780254</v>
+        <v>6840646.463995366</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2022,10 +2022,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111437539</v>
+        <v>111437575</v>
       </c>
       <c r="B13" t="n">
-        <v>90854</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2038,21 +2038,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2079</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2062,10 +2062,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>408501.5625366312</v>
+        <v>408504.7865441007</v>
       </c>
       <c r="R13" t="n">
-        <v>6840831.327062616</v>
+        <v>6840487.477643198</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>gammal silverlåga tall</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2144,10 +2144,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111437575</v>
+        <v>111437539</v>
       </c>
       <c r="B14" t="n">
-        <v>77515</v>
+        <v>90854</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2160,21 +2160,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>2079</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2184,10 +2184,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>408504.7865441007</v>
+        <v>408501.5625366312</v>
       </c>
       <c r="R14" t="n">
-        <v>6840487.477643198</v>
+        <v>6840831.327062616</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gammal silverlåga tall</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2266,10 +2266,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111437549</v>
+        <v>111437526</v>
       </c>
       <c r="B15" t="n">
-        <v>77268</v>
+        <v>78107</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2282,21 +2282,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>408500.8272611026</v>
+        <v>408508.6158578272</v>
       </c>
       <c r="R15" t="n">
-        <v>6840732.114453882</v>
+        <v>6840667.333780254</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2388,10 +2388,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111437571</v>
+        <v>111437583</v>
       </c>
       <c r="B16" t="n">
-        <v>77515</v>
+        <v>76495</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2404,21 +2404,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>6487</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2428,10 +2428,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>408464.2843733802</v>
+        <v>408517.6784034813</v>
       </c>
       <c r="R16" t="n">
-        <v>6840770.59519398</v>
+        <v>6840650.474504818</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2622,10 +2622,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111437537</v>
+        <v>111437550</v>
       </c>
       <c r="B18" t="n">
-        <v>90670</v>
+        <v>77268</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2634,25 +2634,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4365</v>
+        <v>228912</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>408804.4134729251</v>
+        <v>408569.4179842397</v>
       </c>
       <c r="R18" t="n">
-        <v>6840668.030944706</v>
+        <v>6840432.103654918</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>under gammal silverlåga av tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2744,10 +2744,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111437576</v>
+        <v>111437581</v>
       </c>
       <c r="B19" t="n">
-        <v>77515</v>
+        <v>77186</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2760,21 +2760,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2784,10 +2784,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>408585.3398882013</v>
+        <v>408863.0751639231</v>
       </c>
       <c r="R19" t="n">
-        <v>6840440.702809069</v>
+        <v>6840458.980066451</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2866,10 +2866,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111437586</v>
+        <v>111437528</v>
       </c>
       <c r="B20" t="n">
-        <v>76918</v>
+        <v>78107</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2882,21 +2882,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6437</v>
+        <v>6453</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2906,10 +2906,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>408748.8506321483</v>
+        <v>408590.5581813212</v>
       </c>
       <c r="R20" t="n">
-        <v>6840814.316953106</v>
+        <v>6840583.488454883</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2988,10 +2988,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111437541</v>
+        <v>111437573</v>
       </c>
       <c r="B21" t="n">
-        <v>90854</v>
+        <v>77515</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3004,21 +3004,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2079</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>408823.4966528357</v>
+        <v>408608.9995527939</v>
       </c>
       <c r="R21" t="n">
-        <v>6840670.374265191</v>
+        <v>6840561.631771022</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>gammal silverlåga tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3110,10 +3110,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111437552</v>
+        <v>111437524</v>
       </c>
       <c r="B22" t="n">
-        <v>77268</v>
+        <v>78107</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3126,21 +3126,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3150,10 +3150,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>408588.7744222481</v>
+        <v>408649.5392601017</v>
       </c>
       <c r="R22" t="n">
-        <v>6840480.49802895</v>
+        <v>6840816.951234321</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3232,7 +3232,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111437550</v>
+        <v>111437552</v>
       </c>
       <c r="B23" t="n">
         <v>77268</v>
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>408569.4179842397</v>
+        <v>408588.7744222481</v>
       </c>
       <c r="R23" t="n">
-        <v>6840432.103654918</v>
+        <v>6840480.49802895</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111437581</v>
+        <v>111437568</v>
       </c>
       <c r="B24" t="n">
-        <v>77186</v>
+        <v>89558</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3366,25 +3366,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>353</v>
+        <v>1503</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3394,10 +3394,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>408863.0751639231</v>
+        <v>408551.9518172013</v>
       </c>
       <c r="R24" t="n">
-        <v>6840458.980066451</v>
+        <v>6840633.894951201</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>gammal silverlåga tall</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3476,10 +3476,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111437532</v>
+        <v>111437535</v>
       </c>
       <c r="B25" t="n">
-        <v>78107</v>
+        <v>77614</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3492,21 +3492,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6453</v>
+        <v>967</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Varglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Letharia vulpina</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) Hue</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3516,10 +3516,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>408839.117529079</v>
+        <v>408705.1153733243</v>
       </c>
       <c r="R25" t="n">
-        <v>6840685.629148508</v>
+        <v>6840474.086806908</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3598,10 +3598,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111437530</v>
+        <v>111437566</v>
       </c>
       <c r="B26" t="n">
-        <v>78107</v>
+        <v>77267</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3614,21 +3614,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3638,10 +3638,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>408589.7500628192</v>
+        <v>408853.6215853132</v>
       </c>
       <c r="R26" t="n">
-        <v>6840481.421792809</v>
+        <v>6840568.915807345</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3720,10 +3720,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111437562</v>
+        <v>111437536</v>
       </c>
       <c r="B27" t="n">
-        <v>77267</v>
+        <v>56543</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3736,34 +3736,46 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6446</v>
+        <v>103021</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Norr Bratteggen, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>408585.4262771023</v>
+        <v>408690.2263995201</v>
       </c>
       <c r="R27" t="n">
-        <v>6840497.680978389</v>
+        <v>6840432.69591561</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3820,11 +3832,6 @@
       <c r="AI27" t="inlineStr">
         <is>
           <t>Tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -3842,10 +3849,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111437543</v>
+        <v>111437532</v>
       </c>
       <c r="B28" t="n">
-        <v>77268</v>
+        <v>78107</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3858,21 +3865,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3882,10 +3889,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>408678.7734614292</v>
+        <v>408839.117529079</v>
       </c>
       <c r="R28" t="n">
-        <v>6840807.629276852</v>
+        <v>6840685.629148508</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3946,7 +3953,7 @@
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -3964,10 +3971,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111437531</v>
+        <v>111437589</v>
       </c>
       <c r="B29" t="n">
-        <v>78107</v>
+        <v>76918</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3980,21 +3987,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6453</v>
+        <v>6437</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -4004,10 +4011,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>408794.2734963132</v>
+        <v>408794.2986400867</v>
       </c>
       <c r="R29" t="n">
-        <v>6840680.169785046</v>
+        <v>6840681.118731663</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4086,10 +4093,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111437535</v>
+        <v>111437537</v>
       </c>
       <c r="B30" t="n">
-        <v>77614</v>
+        <v>90670</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4098,25 +4105,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>967</v>
+        <v>4365</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Varglav</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Letharia vulpina</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hue</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4126,10 +4133,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>408705.1153733243</v>
+        <v>408804.4134729251</v>
       </c>
       <c r="R30" t="n">
-        <v>6840474.086806908</v>
+        <v>6840668.030944706</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4190,7 +4197,7 @@
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>under gammal silverlåga av tall</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4208,7 +4215,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111437555</v>
+        <v>111437557</v>
       </c>
       <c r="B31" t="n">
         <v>77268</v>
@@ -4248,10 +4255,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>408725.9370387239</v>
+        <v>408848.4090999375</v>
       </c>
       <c r="R31" t="n">
-        <v>6840470.210822346</v>
+        <v>6840587.571808969</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4330,10 +4337,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111437554</v>
+        <v>111437531</v>
       </c>
       <c r="B32" t="n">
-        <v>77268</v>
+        <v>78107</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4346,21 +4353,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4370,10 +4377,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>408667.1039417735</v>
+        <v>408794.2734963132</v>
       </c>
       <c r="R32" t="n">
-        <v>6840439.482232833</v>
+        <v>6840680.169785046</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4434,7 +4441,7 @@
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4452,10 +4459,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111437565</v>
+        <v>111437543</v>
       </c>
       <c r="B33" t="n">
-        <v>77267</v>
+        <v>77268</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4468,21 +4475,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6446</v>
+        <v>228912</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4492,10 +4499,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>408722.6859761576</v>
+        <v>408678.7734614292</v>
       </c>
       <c r="R33" t="n">
-        <v>6840473.146037632</v>
+        <v>6840807.629276852</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4574,10 +4581,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111437585</v>
+        <v>111437576</v>
       </c>
       <c r="B34" t="n">
-        <v>76495</v>
+        <v>77515</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4590,21 +4597,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6487</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4614,10 +4621,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>408625.6938663172</v>
+        <v>408585.3398882013</v>
       </c>
       <c r="R34" t="n">
-        <v>6840491.863559686</v>
+        <v>6840440.702809069</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4678,7 +4685,7 @@
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4696,10 +4703,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111437568</v>
+        <v>111437562</v>
       </c>
       <c r="B35" t="n">
-        <v>89558</v>
+        <v>77267</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4708,25 +4715,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1503</v>
+        <v>6446</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4736,10 +4743,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>408551.9518172013</v>
+        <v>408585.4262771023</v>
       </c>
       <c r="R35" t="n">
-        <v>6840633.894951201</v>
+        <v>6840497.680978389</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4800,7 +4807,7 @@
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>gammal silverlåga tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -4818,10 +4825,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111437578</v>
+        <v>111437586</v>
       </c>
       <c r="B36" t="n">
-        <v>89646</v>
+        <v>76918</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4830,25 +4837,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>65</v>
+        <v>6437</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4858,10 +4865,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>408556.755840479</v>
+        <v>408748.8506321483</v>
       </c>
       <c r="R36" t="n">
-        <v>6840402.999617545</v>
+        <v>6840814.316953106</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4922,7 +4929,7 @@
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>gammal silverlåga tall</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -4940,10 +4947,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111437589</v>
+        <v>111437555</v>
       </c>
       <c r="B37" t="n">
-        <v>76918</v>
+        <v>77268</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4956,21 +4963,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6437</v>
+        <v>228912</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4980,10 +4987,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>408794.2986400867</v>
+        <v>408725.9370387239</v>
       </c>
       <c r="R37" t="n">
-        <v>6840681.118731663</v>
+        <v>6840470.210822346</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5044,7 +5051,7 @@
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5062,10 +5069,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111437529</v>
+        <v>111437588</v>
       </c>
       <c r="B38" t="n">
-        <v>78107</v>
+        <v>76918</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5078,21 +5085,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6453</v>
+        <v>6437</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -5102,10 +5109,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>408586.1805242364</v>
+        <v>408678.6824911303</v>
       </c>
       <c r="R38" t="n">
-        <v>6840454.450850789</v>
+        <v>6840427.778869589</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5184,10 +5191,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111437566</v>
+        <v>111437559</v>
       </c>
       <c r="B39" t="n">
-        <v>77267</v>
+        <v>77268</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5200,21 +5207,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6446</v>
+        <v>228912</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5224,10 +5231,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>408853.6215853132</v>
+        <v>408803.229225906</v>
       </c>
       <c r="R39" t="n">
-        <v>6840568.915807345</v>
+        <v>6840695.126273939</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5306,10 +5313,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111437557</v>
+        <v>111437570</v>
       </c>
       <c r="B40" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5322,21 +5329,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5346,10 +5353,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>408848.4090999375</v>
+        <v>408578.7220698865</v>
       </c>
       <c r="R40" t="n">
-        <v>6840587.571808969</v>
+        <v>6840800.314614936</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5410,7 +5417,7 @@
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5428,7 +5435,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111437524</v>
+        <v>111437529</v>
       </c>
       <c r="B41" t="n">
         <v>78107</v>
@@ -5468,10 +5475,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>408649.5392601017</v>
+        <v>408586.1805242364</v>
       </c>
       <c r="R41" t="n">
-        <v>6840816.951234321</v>
+        <v>6840454.450850789</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5550,10 +5557,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111437573</v>
+        <v>111437554</v>
       </c>
       <c r="B42" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5566,21 +5573,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5590,10 +5597,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>408608.9995527939</v>
+        <v>408667.1039417735</v>
       </c>
       <c r="R42" t="n">
-        <v>6840561.631771022</v>
+        <v>6840439.482232833</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5654,7 +5661,7 @@
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5672,10 +5679,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111437570</v>
+        <v>111437578</v>
       </c>
       <c r="B43" t="n">
-        <v>77515</v>
+        <v>89646</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5684,25 +5691,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>65</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5712,10 +5719,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>408578.7220698865</v>
+        <v>408556.755840479</v>
       </c>
       <c r="R43" t="n">
-        <v>6840800.314614936</v>
+        <v>6840402.999617545</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5776,7 +5783,7 @@
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gammal silverlåga tall</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -5794,10 +5801,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111437536</v>
+        <v>111437565</v>
       </c>
       <c r="B44" t="n">
-        <v>56543</v>
+        <v>77267</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5810,46 +5817,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>103021</v>
+        <v>6446</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr"/>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Norr Bratteggen, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>408690.2263995201</v>
+        <v>408722.6859761576</v>
       </c>
       <c r="R44" t="n">
-        <v>6840432.69591561</v>
+        <v>6840473.146037632</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5906,6 +5901,11 @@
       <c r="AI44" t="inlineStr">
         <is>
           <t>Tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -5923,10 +5923,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111437559</v>
+        <v>111437585</v>
       </c>
       <c r="B45" t="n">
-        <v>77268</v>
+        <v>76495</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5939,21 +5939,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>228912</v>
+        <v>6487</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>408803.229225906</v>
+        <v>408625.6938663172</v>
       </c>
       <c r="R45" t="n">
-        <v>6840695.126273939</v>
+        <v>6840491.863559686</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6027,7 +6027,7 @@
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6045,10 +6045,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111437588</v>
+        <v>111437541</v>
       </c>
       <c r="B46" t="n">
-        <v>76918</v>
+        <v>90854</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6061,21 +6061,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6437</v>
+        <v>2079</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -6085,10 +6085,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>408678.6824911303</v>
+        <v>408823.4966528357</v>
       </c>
       <c r="R46" t="n">
-        <v>6840427.778869589</v>
+        <v>6840670.374265191</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>gammal silverlåga tall</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111437528</v>
+        <v>111437530</v>
       </c>
       <c r="B47" t="n">
         <v>78107</v>
@@ -6207,10 +6207,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>408590.5581813212</v>
+        <v>408589.7500628192</v>
       </c>
       <c r="R47" t="n">
-        <v>6840583.488454883</v>
+        <v>6840481.421792809</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>

--- a/artfynd/A 31037-2023.xlsx
+++ b/artfynd/A 31037-2023.xlsx
@@ -6045,10 +6045,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111437541</v>
+        <v>111437530</v>
       </c>
       <c r="B46" t="n">
-        <v>90854</v>
+        <v>78107</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6061,21 +6061,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2079</v>
+        <v>6453</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -6085,10 +6085,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>408823.4966528357</v>
+        <v>408589.7500628192</v>
       </c>
       <c r="R46" t="n">
-        <v>6840670.374265191</v>
+        <v>6840481.421792809</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>gammal silverlåga tall</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6167,10 +6167,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111437530</v>
+        <v>111437541</v>
       </c>
       <c r="B47" t="n">
-        <v>78107</v>
+        <v>90854</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6183,21 +6183,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6453</v>
+        <v>2079</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -6207,10 +6207,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>408589.7500628192</v>
+        <v>408823.4966528357</v>
       </c>
       <c r="R47" t="n">
-        <v>6840481.421792809</v>
+        <v>6840670.374265191</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6271,7 +6271,7 @@
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>gammal silverlåga tall</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>

--- a/artfynd/A 31037-2023.xlsx
+++ b/artfynd/A 31037-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111437560</v>
+        <v>111437549</v>
       </c>
       <c r="B2" t="n">
-        <v>77267</v>
+        <v>77268</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6446</v>
+        <v>228912</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>408500.915547841</v>
+        <v>408500.8272611026</v>
       </c>
       <c r="R2" t="n">
-        <v>6840735.435718091</v>
+        <v>6840732.114453882</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111437563</v>
+        <v>111437571</v>
       </c>
       <c r="B3" t="n">
-        <v>77267</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,21 +818,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>408500.7703817514</v>
+        <v>408464.2843733802</v>
       </c>
       <c r="R3" t="n">
-        <v>6840479.512178969</v>
+        <v>6840770.59519398</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -906,7 +906,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -924,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111437544</v>
+        <v>111437539</v>
       </c>
       <c r="B4" t="n">
-        <v>77268</v>
+        <v>90854</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -940,21 +940,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>228912</v>
+        <v>2079</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>408485.0619097245</v>
+        <v>408501.5625366312</v>
       </c>
       <c r="R4" t="n">
-        <v>6840800.904364322</v>
+        <v>6840831.327062616</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>gammal silverlåga tall</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111437525</v>
+        <v>111437575</v>
       </c>
       <c r="B5" t="n">
-        <v>78107</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1062,21 +1062,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>408480.7685386025</v>
+        <v>408504.7865441007</v>
       </c>
       <c r="R5" t="n">
-        <v>6840728.849301332</v>
+        <v>6840487.477643198</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111437580</v>
+        <v>111437563</v>
       </c>
       <c r="B6" t="n">
-        <v>77186</v>
+        <v>77267</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1184,21 +1184,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>353</v>
+        <v>6446</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1208,10 +1208,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>408524.7307049468</v>
+        <v>408500.7703817514</v>
       </c>
       <c r="R6" t="n">
-        <v>6840647.438207929</v>
+        <v>6840479.512178969</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111437546</v>
+        <v>111437534</v>
       </c>
       <c r="B7" t="n">
-        <v>77268</v>
+        <v>78081</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1306,21 +1306,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>228912</v>
+        <v>229821</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>408476.0083286518</v>
+        <v>408525.6558820616</v>
       </c>
       <c r="R7" t="n">
-        <v>6840800.195503389</v>
+        <v>6840646.463995366</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1412,10 +1412,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111437571</v>
+        <v>111437533</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>78081</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1428,21 +1428,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>229821</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1452,10 +1452,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>408464.2843733802</v>
+        <v>408508.6158578272</v>
       </c>
       <c r="R8" t="n">
-        <v>6840770.59519398</v>
+        <v>6840667.333780254</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1534,10 +1534,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111437527</v>
+        <v>111437560</v>
       </c>
       <c r="B9" t="n">
-        <v>78107</v>
+        <v>77267</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1550,21 +1550,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1574,10 +1574,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>408525.6558820616</v>
+        <v>408500.915547841</v>
       </c>
       <c r="R9" t="n">
-        <v>6840646.463995366</v>
+        <v>6840735.435718091</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111437549</v>
+        <v>111437546</v>
       </c>
       <c r="B10" t="n">
         <v>77268</v>
@@ -1696,10 +1696,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>408500.8272611026</v>
+        <v>408476.0083286518</v>
       </c>
       <c r="R10" t="n">
-        <v>6840732.114453882</v>
+        <v>6840800.195503389</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111437533</v>
+        <v>111437583</v>
       </c>
       <c r="B11" t="n">
-        <v>78081</v>
+        <v>76495</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1794,21 +1794,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>229821</v>
+        <v>6487</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1818,10 +1818,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>408508.6158578272</v>
+        <v>408517.6784034813</v>
       </c>
       <c r="R11" t="n">
-        <v>6840667.333780254</v>
+        <v>6840650.474504818</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1900,10 +1900,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111437534</v>
+        <v>111437580</v>
       </c>
       <c r="B12" t="n">
-        <v>78081</v>
+        <v>77186</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1916,21 +1916,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>229821</v>
+        <v>353</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>408525.6558820616</v>
+        <v>408524.7307049468</v>
       </c>
       <c r="R12" t="n">
-        <v>6840646.463995366</v>
+        <v>6840647.438207929</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2022,10 +2022,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111437575</v>
+        <v>111437527</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>78107</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2038,21 +2038,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2062,10 +2062,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>408504.7865441007</v>
+        <v>408525.6558820616</v>
       </c>
       <c r="R13" t="n">
-        <v>6840487.477643198</v>
+        <v>6840646.463995366</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2144,10 +2144,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111437539</v>
+        <v>111437525</v>
       </c>
       <c r="B14" t="n">
-        <v>90854</v>
+        <v>78107</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2160,21 +2160,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2079</v>
+        <v>6453</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2184,10 +2184,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>408501.5625366312</v>
+        <v>408480.7685386025</v>
       </c>
       <c r="R14" t="n">
-        <v>6840831.327062616</v>
+        <v>6840728.849301332</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>gammal silverlåga tall</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2266,10 +2266,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111437526</v>
+        <v>111437544</v>
       </c>
       <c r="B15" t="n">
-        <v>78107</v>
+        <v>77268</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2282,21 +2282,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6453</v>
+        <v>228912</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>408508.6158578272</v>
+        <v>408485.0619097245</v>
       </c>
       <c r="R15" t="n">
-        <v>6840667.333780254</v>
+        <v>6840800.904364322</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2388,10 +2388,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111437583</v>
+        <v>111437526</v>
       </c>
       <c r="B16" t="n">
-        <v>76495</v>
+        <v>78107</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2404,21 +2404,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6487</v>
+        <v>6453</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2428,10 +2428,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>408517.6784034813</v>
+        <v>408508.6158578272</v>
       </c>
       <c r="R16" t="n">
-        <v>6840650.474504818</v>
+        <v>6840667.333780254</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2622,10 +2622,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111437550</v>
+        <v>111437530</v>
       </c>
       <c r="B18" t="n">
-        <v>77268</v>
+        <v>78107</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2638,21 +2638,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>408569.4179842397</v>
+        <v>408589.7500628192</v>
       </c>
       <c r="R18" t="n">
-        <v>6840432.103654918</v>
+        <v>6840481.421792809</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2744,10 +2744,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111437581</v>
+        <v>111437531</v>
       </c>
       <c r="B19" t="n">
-        <v>77186</v>
+        <v>78107</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2760,21 +2760,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>353</v>
+        <v>6453</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2784,10 +2784,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>408863.0751639231</v>
+        <v>408794.2734963132</v>
       </c>
       <c r="R19" t="n">
-        <v>6840458.980066451</v>
+        <v>6840680.169785046</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2866,10 +2866,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111437528</v>
+        <v>111437562</v>
       </c>
       <c r="B20" t="n">
-        <v>78107</v>
+        <v>77267</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2882,21 +2882,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2906,10 +2906,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>408590.5581813212</v>
+        <v>408585.4262771023</v>
       </c>
       <c r="R20" t="n">
-        <v>6840583.488454883</v>
+        <v>6840497.680978389</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -2988,10 +2988,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111437573</v>
+        <v>111437550</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3004,21 +3004,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>408608.9995527939</v>
+        <v>408569.4179842397</v>
       </c>
       <c r="R21" t="n">
-        <v>6840561.631771022</v>
+        <v>6840432.103654918</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3110,10 +3110,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111437524</v>
+        <v>111437573</v>
       </c>
       <c r="B22" t="n">
-        <v>78107</v>
+        <v>77515</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3126,21 +3126,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3150,10 +3150,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>408649.5392601017</v>
+        <v>408608.9995527939</v>
       </c>
       <c r="R22" t="n">
-        <v>6840816.951234321</v>
+        <v>6840561.631771022</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3232,10 +3232,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111437552</v>
+        <v>111437565</v>
       </c>
       <c r="B23" t="n">
-        <v>77268</v>
+        <v>77267</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3248,21 +3248,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>228912</v>
+        <v>6446</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>408588.7744222481</v>
+        <v>408722.6859761576</v>
       </c>
       <c r="R23" t="n">
-        <v>6840480.49802895</v>
+        <v>6840473.146037632</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111437568</v>
+        <v>111437581</v>
       </c>
       <c r="B24" t="n">
-        <v>89558</v>
+        <v>77186</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3366,25 +3366,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1503</v>
+        <v>353</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3394,10 +3394,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>408551.9518172013</v>
+        <v>408863.0751639231</v>
       </c>
       <c r="R24" t="n">
-        <v>6840633.894951201</v>
+        <v>6840458.980066451</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>gammal silverlåga tall</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3476,10 +3476,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111437535</v>
+        <v>111437559</v>
       </c>
       <c r="B25" t="n">
-        <v>77614</v>
+        <v>77268</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3492,21 +3492,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>967</v>
+        <v>228912</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Varglav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Letharia vulpina</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hue</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3516,10 +3516,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>408705.1153733243</v>
+        <v>408803.229225906</v>
       </c>
       <c r="R25" t="n">
-        <v>6840474.086806908</v>
+        <v>6840695.126273939</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3598,10 +3598,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111437566</v>
+        <v>111437568</v>
       </c>
       <c r="B26" t="n">
-        <v>77267</v>
+        <v>89558</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3610,25 +3610,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6446</v>
+        <v>1503</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3638,10 +3638,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>408853.6215853132</v>
+        <v>408551.9518172013</v>
       </c>
       <c r="R26" t="n">
-        <v>6840568.915807345</v>
+        <v>6840633.894951201</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>gammal silverlåga tall</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3720,10 +3720,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111437536</v>
+        <v>111437528</v>
       </c>
       <c r="B27" t="n">
-        <v>56543</v>
+        <v>78107</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3736,46 +3736,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>103021</v>
+        <v>6453</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Norr Bratteggen, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>408690.2263995201</v>
+        <v>408590.5581813212</v>
       </c>
       <c r="R27" t="n">
-        <v>6840432.69591561</v>
+        <v>6840583.488454883</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3832,6 +3820,11 @@
       <c r="AI27" t="inlineStr">
         <is>
           <t>Tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -3849,10 +3842,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111437532</v>
+        <v>111437552</v>
       </c>
       <c r="B28" t="n">
-        <v>78107</v>
+        <v>77268</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3865,21 +3858,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6453</v>
+        <v>228912</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3889,10 +3882,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>408839.117529079</v>
+        <v>408588.7744222481</v>
       </c>
       <c r="R28" t="n">
-        <v>6840685.629148508</v>
+        <v>6840480.49802895</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3953,7 +3946,7 @@
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -3971,10 +3964,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111437589</v>
+        <v>111437536</v>
       </c>
       <c r="B29" t="n">
-        <v>76918</v>
+        <v>56543</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3987,34 +3980,46 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6437</v>
+        <v>103021</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Norr Bratteggen, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>408794.2986400867</v>
+        <v>408690.2263995201</v>
       </c>
       <c r="R29" t="n">
-        <v>6840681.118731663</v>
+        <v>6840432.69591561</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4071,11 +4076,6 @@
       <c r="AI29" t="inlineStr">
         <is>
           <t>Tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4093,10 +4093,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111437537</v>
+        <v>111437524</v>
       </c>
       <c r="B30" t="n">
-        <v>90670</v>
+        <v>78107</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4105,25 +4105,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4365</v>
+        <v>6453</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4133,10 +4133,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>408804.4134729251</v>
+        <v>408649.5392601017</v>
       </c>
       <c r="R30" t="n">
-        <v>6840668.030944706</v>
+        <v>6840816.951234321</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>under gammal silverlåga av tall</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4215,10 +4215,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111437557</v>
+        <v>111437576</v>
       </c>
       <c r="B31" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4231,21 +4231,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4255,10 +4255,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>408848.4090999375</v>
+        <v>408585.3398882013</v>
       </c>
       <c r="R31" t="n">
-        <v>6840587.571808969</v>
+        <v>6840440.702809069</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111437531</v>
+        <v>111437532</v>
       </c>
       <c r="B32" t="n">
         <v>78107</v>
@@ -4377,10 +4377,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>408794.2734963132</v>
+        <v>408839.117529079</v>
       </c>
       <c r="R32" t="n">
-        <v>6840680.169785046</v>
+        <v>6840685.629148508</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4459,10 +4459,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111437543</v>
+        <v>111437529</v>
       </c>
       <c r="B33" t="n">
-        <v>77268</v>
+        <v>78107</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4475,21 +4475,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4499,10 +4499,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>408678.7734614292</v>
+        <v>408586.1805242364</v>
       </c>
       <c r="R33" t="n">
-        <v>6840807.629276852</v>
+        <v>6840454.450850789</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4581,10 +4581,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111437576</v>
+        <v>111437588</v>
       </c>
       <c r="B34" t="n">
-        <v>77515</v>
+        <v>76918</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4597,21 +4597,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>6437</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4621,10 +4621,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>408585.3398882013</v>
+        <v>408678.6824911303</v>
       </c>
       <c r="R34" t="n">
-        <v>6840440.702809069</v>
+        <v>6840427.778869589</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4703,10 +4703,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111437562</v>
+        <v>111437543</v>
       </c>
       <c r="B35" t="n">
-        <v>77267</v>
+        <v>77268</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4719,21 +4719,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6446</v>
+        <v>228912</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4743,10 +4743,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>408585.4262771023</v>
+        <v>408678.7734614292</v>
       </c>
       <c r="R35" t="n">
-        <v>6840497.680978389</v>
+        <v>6840807.629276852</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111437586</v>
+        <v>111437589</v>
       </c>
       <c r="B36" t="n">
         <v>76918</v>
@@ -4865,10 +4865,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>408748.8506321483</v>
+        <v>408794.2986400867</v>
       </c>
       <c r="R36" t="n">
-        <v>6840814.316953106</v>
+        <v>6840681.118731663</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -5069,10 +5069,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111437588</v>
+        <v>111437585</v>
       </c>
       <c r="B38" t="n">
-        <v>76918</v>
+        <v>76495</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5085,21 +5085,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6437</v>
+        <v>6487</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -5109,10 +5109,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>408678.6824911303</v>
+        <v>408625.6938663172</v>
       </c>
       <c r="R38" t="n">
-        <v>6840427.778869589</v>
+        <v>6840491.863559686</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5191,10 +5191,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111437559</v>
+        <v>111437535</v>
       </c>
       <c r="B39" t="n">
-        <v>77268</v>
+        <v>77614</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5207,21 +5207,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>228912</v>
+        <v>967</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Varglav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Letharia vulpina</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hue</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5231,10 +5231,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>408803.229225906</v>
+        <v>408705.1153733243</v>
       </c>
       <c r="R39" t="n">
-        <v>6840695.126273939</v>
+        <v>6840474.086806908</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5313,10 +5313,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111437570</v>
+        <v>111437537</v>
       </c>
       <c r="B40" t="n">
-        <v>77515</v>
+        <v>90670</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5325,25 +5325,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>4365</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5353,10 +5353,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>408578.7220698865</v>
+        <v>408804.4134729251</v>
       </c>
       <c r="R40" t="n">
-        <v>6840800.314614936</v>
+        <v>6840668.030944706</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>under gammal silverlåga av tall</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5435,10 +5435,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111437529</v>
+        <v>111437570</v>
       </c>
       <c r="B41" t="n">
-        <v>78107</v>
+        <v>77515</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5451,21 +5451,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5475,10 +5475,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>408586.1805242364</v>
+        <v>408578.7220698865</v>
       </c>
       <c r="R41" t="n">
-        <v>6840454.450850789</v>
+        <v>6840800.314614936</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5539,7 +5539,7 @@
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -5557,10 +5557,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111437554</v>
+        <v>111437541</v>
       </c>
       <c r="B42" t="n">
-        <v>77268</v>
+        <v>90854</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5573,21 +5573,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>228912</v>
+        <v>2079</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5597,10 +5597,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>408667.1039417735</v>
+        <v>408823.4966528357</v>
       </c>
       <c r="R42" t="n">
-        <v>6840439.482232833</v>
+        <v>6840670.374265191</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>gammal silverlåga tall</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5679,10 +5679,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111437578</v>
+        <v>111437557</v>
       </c>
       <c r="B43" t="n">
-        <v>89646</v>
+        <v>77268</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5691,25 +5691,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>65</v>
+        <v>228912</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>408556.755840479</v>
+        <v>408848.4090999375</v>
       </c>
       <c r="R43" t="n">
-        <v>6840402.999617545</v>
+        <v>6840587.571808969</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5783,7 +5783,7 @@
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>gammal silverlåga tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -5801,10 +5801,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111437565</v>
+        <v>111437554</v>
       </c>
       <c r="B44" t="n">
-        <v>77267</v>
+        <v>77268</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5817,21 +5817,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6446</v>
+        <v>228912</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5841,10 +5841,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>408722.6859761576</v>
+        <v>408667.1039417735</v>
       </c>
       <c r="R44" t="n">
-        <v>6840473.146037632</v>
+        <v>6840439.482232833</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5923,10 +5923,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111437585</v>
+        <v>111437578</v>
       </c>
       <c r="B45" t="n">
-        <v>76495</v>
+        <v>89646</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5935,25 +5935,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6487</v>
+        <v>65</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>408625.6938663172</v>
+        <v>408556.755840479</v>
       </c>
       <c r="R45" t="n">
-        <v>6840491.863559686</v>
+        <v>6840402.999617545</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6027,7 +6027,7 @@
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>gammal silverlåga tall</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6045,10 +6045,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111437530</v>
+        <v>111437566</v>
       </c>
       <c r="B46" t="n">
-        <v>78107</v>
+        <v>77267</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6061,21 +6061,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -6085,10 +6085,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>408589.7500628192</v>
+        <v>408853.6215853132</v>
       </c>
       <c r="R46" t="n">
-        <v>6840481.421792809</v>
+        <v>6840568.915807345</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6167,10 +6167,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111437541</v>
+        <v>111437586</v>
       </c>
       <c r="B47" t="n">
-        <v>90854</v>
+        <v>76918</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6183,21 +6183,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2079</v>
+        <v>6437</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -6207,10 +6207,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>408823.4966528357</v>
+        <v>408748.8506321483</v>
       </c>
       <c r="R47" t="n">
-        <v>6840670.374265191</v>
+        <v>6840814.316953106</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6271,7 +6271,7 @@
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>gammal silverlåga tall</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>

--- a/artfynd/A 31037-2023.xlsx
+++ b/artfynd/A 31037-2023.xlsx
@@ -3110,10 +3110,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111437573</v>
+        <v>111437581</v>
       </c>
       <c r="B22" t="n">
-        <v>77515</v>
+        <v>77186</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3126,21 +3126,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3150,10 +3150,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>408608.9995527939</v>
+        <v>408863.0751639231</v>
       </c>
       <c r="R22" t="n">
-        <v>6840561.631771022</v>
+        <v>6840458.980066451</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3232,10 +3232,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111437565</v>
+        <v>111437559</v>
       </c>
       <c r="B23" t="n">
-        <v>77267</v>
+        <v>77268</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3248,21 +3248,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6446</v>
+        <v>228912</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>408722.6859761576</v>
+        <v>408803.229225906</v>
       </c>
       <c r="R23" t="n">
-        <v>6840473.146037632</v>
+        <v>6840695.126273939</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111437581</v>
+        <v>111437573</v>
       </c>
       <c r="B24" t="n">
-        <v>77186</v>
+        <v>77515</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3370,21 +3370,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3394,10 +3394,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>408863.0751639231</v>
+        <v>408608.9995527939</v>
       </c>
       <c r="R24" t="n">
-        <v>6840458.980066451</v>
+        <v>6840561.631771022</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3476,10 +3476,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111437559</v>
+        <v>111437565</v>
       </c>
       <c r="B25" t="n">
-        <v>77268</v>
+        <v>77267</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3492,21 +3492,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>228912</v>
+        <v>6446</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3516,10 +3516,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>408803.229225906</v>
+        <v>408722.6859761576</v>
       </c>
       <c r="R25" t="n">
-        <v>6840695.126273939</v>
+        <v>6840473.146037632</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>

--- a/artfynd/A 31037-2023.xlsx
+++ b/artfynd/A 31037-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111437549</v>
+        <v>111437546</v>
       </c>
       <c r="B2" t="n">
         <v>77268</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>408500.8272611026</v>
+        <v>408476.0083286518</v>
       </c>
       <c r="R2" t="n">
-        <v>6840732.114453882</v>
+        <v>6840800.195503389</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111437571</v>
+        <v>111437527</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>78107</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,21 +818,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>408464.2843733802</v>
+        <v>408525.6558820616</v>
       </c>
       <c r="R3" t="n">
-        <v>6840770.59519398</v>
+        <v>6840646.463995366</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -906,7 +906,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -924,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111437539</v>
+        <v>111437580</v>
       </c>
       <c r="B4" t="n">
-        <v>90854</v>
+        <v>77186</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -940,21 +940,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2079</v>
+        <v>353</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>408501.5625366312</v>
+        <v>408524.7307049468</v>
       </c>
       <c r="R4" t="n">
-        <v>6840831.327062616</v>
+        <v>6840647.438207929</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>gammal silverlåga tall</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111437575</v>
+        <v>111437539</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>90854</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1062,21 +1062,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>2079</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>408504.7865441007</v>
+        <v>408501.5625366312</v>
       </c>
       <c r="R5" t="n">
-        <v>6840487.477643198</v>
+        <v>6840831.327062616</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gammal silverlåga tall</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111437563</v>
+        <v>111437560</v>
       </c>
       <c r="B6" t="n">
         <v>77267</v>
@@ -1208,10 +1208,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>408500.7703817514</v>
+        <v>408500.915547841</v>
       </c>
       <c r="R6" t="n">
-        <v>6840479.512178969</v>
+        <v>6840735.435718091</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111437534</v>
+        <v>111437526</v>
       </c>
       <c r="B7" t="n">
-        <v>78081</v>
+        <v>78107</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1306,21 +1306,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>229821</v>
+        <v>6453</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>408525.6558820616</v>
+        <v>408508.6158578272</v>
       </c>
       <c r="R7" t="n">
-        <v>6840646.463995366</v>
+        <v>6840667.333780254</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1534,10 +1534,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111437560</v>
+        <v>111437525</v>
       </c>
       <c r="B9" t="n">
-        <v>77267</v>
+        <v>78107</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1550,21 +1550,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6446</v>
+        <v>6453</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1574,10 +1574,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>408500.915547841</v>
+        <v>408480.7685386025</v>
       </c>
       <c r="R9" t="n">
-        <v>6840735.435718091</v>
+        <v>6840728.849301332</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1656,10 +1656,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111437546</v>
+        <v>111437534</v>
       </c>
       <c r="B10" t="n">
-        <v>77268</v>
+        <v>78081</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1672,21 +1672,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>228912</v>
+        <v>229821</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1696,10 +1696,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>408476.0083286518</v>
+        <v>408525.6558820616</v>
       </c>
       <c r="R10" t="n">
-        <v>6840800.195503389</v>
+        <v>6840646.463995366</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111437583</v>
+        <v>111437549</v>
       </c>
       <c r="B11" t="n">
-        <v>76495</v>
+        <v>77268</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1794,21 +1794,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6487</v>
+        <v>228912</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1818,10 +1818,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>408517.6784034813</v>
+        <v>408500.8272611026</v>
       </c>
       <c r="R11" t="n">
-        <v>6840650.474504818</v>
+        <v>6840732.114453882</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1900,10 +1900,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111437580</v>
+        <v>111437583</v>
       </c>
       <c r="B12" t="n">
-        <v>77186</v>
+        <v>76495</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1916,21 +1916,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>353</v>
+        <v>6487</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>408524.7307049468</v>
+        <v>408517.6784034813</v>
       </c>
       <c r="R12" t="n">
-        <v>6840647.438207929</v>
+        <v>6840650.474504818</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2022,10 +2022,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111437527</v>
+        <v>111437544</v>
       </c>
       <c r="B13" t="n">
-        <v>78107</v>
+        <v>77268</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2038,21 +2038,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6453</v>
+        <v>228912</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2062,10 +2062,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>408525.6558820616</v>
+        <v>408485.0619097245</v>
       </c>
       <c r="R13" t="n">
-        <v>6840646.463995366</v>
+        <v>6840800.904364322</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2144,10 +2144,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111437525</v>
+        <v>111437571</v>
       </c>
       <c r="B14" t="n">
-        <v>78107</v>
+        <v>77515</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2160,21 +2160,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2184,10 +2184,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>408480.7685386025</v>
+        <v>408464.2843733802</v>
       </c>
       <c r="R14" t="n">
-        <v>6840728.849301332</v>
+        <v>6840770.59519398</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2266,10 +2266,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111437544</v>
+        <v>111437563</v>
       </c>
       <c r="B15" t="n">
-        <v>77268</v>
+        <v>77267</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2282,21 +2282,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>228912</v>
+        <v>6446</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>408485.0619097245</v>
+        <v>408500.7703817514</v>
       </c>
       <c r="R15" t="n">
-        <v>6840800.904364322</v>
+        <v>6840479.512178969</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2388,10 +2388,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111437526</v>
+        <v>111437575</v>
       </c>
       <c r="B16" t="n">
-        <v>78107</v>
+        <v>77515</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2404,21 +2404,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2428,10 +2428,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>408508.6158578272</v>
+        <v>408504.7865441007</v>
       </c>
       <c r="R16" t="n">
-        <v>6840667.333780254</v>
+        <v>6840487.477643198</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2622,10 +2622,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111437530</v>
+        <v>111437585</v>
       </c>
       <c r="B18" t="n">
-        <v>78107</v>
+        <v>76495</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2638,21 +2638,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6453</v>
+        <v>6487</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>408589.7500628192</v>
+        <v>408625.6938663172</v>
       </c>
       <c r="R18" t="n">
-        <v>6840481.421792809</v>
+        <v>6840491.863559686</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2744,10 +2744,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111437531</v>
+        <v>111437537</v>
       </c>
       <c r="B19" t="n">
-        <v>78107</v>
+        <v>90670</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2756,25 +2756,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6453</v>
+        <v>4365</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2784,10 +2784,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>408794.2734963132</v>
+        <v>408804.4134729251</v>
       </c>
       <c r="R19" t="n">
-        <v>6840680.169785046</v>
+        <v>6840668.030944706</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>under gammal silverlåga av tall</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111437562</v>
+        <v>111437565</v>
       </c>
       <c r="B20" t="n">
         <v>77267</v>
@@ -2906,10 +2906,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>408585.4262771023</v>
+        <v>408722.6859761576</v>
       </c>
       <c r="R20" t="n">
-        <v>6840497.680978389</v>
+        <v>6840473.146037632</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2988,10 +2988,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111437550</v>
+        <v>111437578</v>
       </c>
       <c r="B21" t="n">
-        <v>77268</v>
+        <v>89646</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3000,25 +3000,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>228912</v>
+        <v>65</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>408569.4179842397</v>
+        <v>408556.755840479</v>
       </c>
       <c r="R21" t="n">
-        <v>6840432.103654918</v>
+        <v>6840402.999617545</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>gammal silverlåga tall</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3110,10 +3110,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111437581</v>
+        <v>111437554</v>
       </c>
       <c r="B22" t="n">
-        <v>77186</v>
+        <v>77268</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3126,21 +3126,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>353</v>
+        <v>228912</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3150,10 +3150,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>408863.0751639231</v>
+        <v>408667.1039417735</v>
       </c>
       <c r="R22" t="n">
-        <v>6840458.980066451</v>
+        <v>6840439.482232833</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3232,10 +3232,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111437559</v>
+        <v>111437581</v>
       </c>
       <c r="B23" t="n">
-        <v>77268</v>
+        <v>77186</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3248,21 +3248,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>228912</v>
+        <v>353</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>408803.229225906</v>
+        <v>408863.0751639231</v>
       </c>
       <c r="R23" t="n">
-        <v>6840695.126273939</v>
+        <v>6840458.980066451</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111437573</v>
+        <v>111437555</v>
       </c>
       <c r="B24" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3370,21 +3370,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3394,10 +3394,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>408608.9995527939</v>
+        <v>408725.9370387239</v>
       </c>
       <c r="R24" t="n">
-        <v>6840561.631771022</v>
+        <v>6840470.210822346</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3476,10 +3476,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111437565</v>
+        <v>111437586</v>
       </c>
       <c r="B25" t="n">
-        <v>77267</v>
+        <v>76918</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3492,21 +3492,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6446</v>
+        <v>6437</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3516,10 +3516,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>408722.6859761576</v>
+        <v>408748.8506321483</v>
       </c>
       <c r="R25" t="n">
-        <v>6840473.146037632</v>
+        <v>6840814.316953106</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3598,10 +3598,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111437568</v>
+        <v>111437541</v>
       </c>
       <c r="B26" t="n">
-        <v>89558</v>
+        <v>90854</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3610,25 +3610,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1503</v>
+        <v>2079</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3638,10 +3638,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>408551.9518172013</v>
+        <v>408823.4966528357</v>
       </c>
       <c r="R26" t="n">
-        <v>6840633.894951201</v>
+        <v>6840670.374265191</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111437552</v>
+        <v>111437559</v>
       </c>
       <c r="B28" t="n">
         <v>77268</v>
@@ -3882,10 +3882,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>408588.7744222481</v>
+        <v>408803.229225906</v>
       </c>
       <c r="R28" t="n">
-        <v>6840480.49802895</v>
+        <v>6840695.126273939</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3964,10 +3964,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111437536</v>
+        <v>111437532</v>
       </c>
       <c r="B29" t="n">
-        <v>56543</v>
+        <v>78107</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3980,46 +3980,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>103021</v>
+        <v>6453</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Norr Bratteggen, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>408690.2263995201</v>
+        <v>408839.117529079</v>
       </c>
       <c r="R29" t="n">
-        <v>6840432.69591561</v>
+        <v>6840685.629148508</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4076,6 +4064,11 @@
       <c r="AI29" t="inlineStr">
         <is>
           <t>Tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4093,10 +4086,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111437524</v>
+        <v>111437557</v>
       </c>
       <c r="B30" t="n">
-        <v>78107</v>
+        <v>77268</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4109,21 +4102,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6453</v>
+        <v>228912</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4133,10 +4126,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>408649.5392601017</v>
+        <v>408848.4090999375</v>
       </c>
       <c r="R30" t="n">
-        <v>6840816.951234321</v>
+        <v>6840587.571808969</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4197,7 +4190,7 @@
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4215,7 +4208,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111437576</v>
+        <v>111437570</v>
       </c>
       <c r="B31" t="n">
         <v>77515</v>
@@ -4255,10 +4248,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>408585.3398882013</v>
+        <v>408578.7220698865</v>
       </c>
       <c r="R31" t="n">
-        <v>6840440.702809069</v>
+        <v>6840800.314614936</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4337,10 +4330,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111437532</v>
+        <v>111437536</v>
       </c>
       <c r="B32" t="n">
-        <v>78107</v>
+        <v>56543</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4353,34 +4346,46 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6453</v>
+        <v>103021</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Norr Bratteggen, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>408839.117529079</v>
+        <v>408690.2263995201</v>
       </c>
       <c r="R32" t="n">
-        <v>6840685.629148508</v>
+        <v>6840432.69591561</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4437,11 +4442,6 @@
       <c r="AI32" t="inlineStr">
         <is>
           <t>Tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4459,10 +4459,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111437529</v>
+        <v>111437589</v>
       </c>
       <c r="B33" t="n">
-        <v>78107</v>
+        <v>76918</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4475,21 +4475,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6453</v>
+        <v>6437</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4499,10 +4499,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>408586.1805242364</v>
+        <v>408794.2986400867</v>
       </c>
       <c r="R33" t="n">
-        <v>6840454.450850789</v>
+        <v>6840681.118731663</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4581,10 +4581,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111437588</v>
+        <v>111437550</v>
       </c>
       <c r="B34" t="n">
-        <v>76918</v>
+        <v>77268</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4597,21 +4597,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6437</v>
+        <v>228912</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4621,10 +4621,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>408678.6824911303</v>
+        <v>408569.4179842397</v>
       </c>
       <c r="R34" t="n">
-        <v>6840427.778869589</v>
+        <v>6840432.103654918</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111437543</v>
+        <v>111437552</v>
       </c>
       <c r="B35" t="n">
         <v>77268</v>
@@ -4743,10 +4743,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>408678.7734614292</v>
+        <v>408588.7744222481</v>
       </c>
       <c r="R35" t="n">
-        <v>6840807.629276852</v>
+        <v>6840480.49802895</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4825,10 +4825,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111437589</v>
+        <v>111437524</v>
       </c>
       <c r="B36" t="n">
-        <v>76918</v>
+        <v>78107</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4841,21 +4841,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6437</v>
+        <v>6453</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4865,10 +4865,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>408794.2986400867</v>
+        <v>408649.5392601017</v>
       </c>
       <c r="R36" t="n">
-        <v>6840681.118731663</v>
+        <v>6840816.951234321</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4947,10 +4947,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111437555</v>
+        <v>111437530</v>
       </c>
       <c r="B37" t="n">
-        <v>77268</v>
+        <v>78107</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4963,21 +4963,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>408725.9370387239</v>
+        <v>408589.7500628192</v>
       </c>
       <c r="R37" t="n">
-        <v>6840470.210822346</v>
+        <v>6840481.421792809</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5051,7 +5051,7 @@
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5069,10 +5069,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111437585</v>
+        <v>111437543</v>
       </c>
       <c r="B38" t="n">
-        <v>76495</v>
+        <v>77268</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5085,21 +5085,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6487</v>
+        <v>228912</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -5109,10 +5109,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>408625.6938663172</v>
+        <v>408678.7734614292</v>
       </c>
       <c r="R38" t="n">
-        <v>6840491.863559686</v>
+        <v>6840807.629276852</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>silverhögstubbe tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5191,10 +5191,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111437535</v>
+        <v>111437588</v>
       </c>
       <c r="B39" t="n">
-        <v>77614</v>
+        <v>76918</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5207,21 +5207,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>967</v>
+        <v>6437</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Varglav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Letharia vulpina</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Hue</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5231,10 +5231,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>408705.1153733243</v>
+        <v>408678.6824911303</v>
       </c>
       <c r="R39" t="n">
-        <v>6840474.086806908</v>
+        <v>6840427.778869589</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5313,10 +5313,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111437537</v>
+        <v>111437576</v>
       </c>
       <c r="B40" t="n">
-        <v>90670</v>
+        <v>77515</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5325,25 +5325,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4365</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5353,10 +5353,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>408804.4134729251</v>
+        <v>408585.3398882013</v>
       </c>
       <c r="R40" t="n">
-        <v>6840668.030944706</v>
+        <v>6840440.702809069</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>under gammal silverlåga av tall</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5435,7 +5435,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111437570</v>
+        <v>111437573</v>
       </c>
       <c r="B41" t="n">
         <v>77515</v>
@@ -5475,10 +5475,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>408578.7220698865</v>
+        <v>408608.9995527939</v>
       </c>
       <c r="R41" t="n">
-        <v>6840800.314614936</v>
+        <v>6840561.631771022</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5539,7 +5539,7 @@
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -5557,10 +5557,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111437541</v>
+        <v>111437529</v>
       </c>
       <c r="B42" t="n">
-        <v>90854</v>
+        <v>78107</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5573,21 +5573,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2079</v>
+        <v>6453</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5597,10 +5597,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>408823.4966528357</v>
+        <v>408586.1805242364</v>
       </c>
       <c r="R42" t="n">
-        <v>6840670.374265191</v>
+        <v>6840454.450850789</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>gammal silverlåga tall</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5679,10 +5679,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111437557</v>
+        <v>111437531</v>
       </c>
       <c r="B43" t="n">
-        <v>77268</v>
+        <v>78107</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5695,21 +5695,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>408848.4090999375</v>
+        <v>408794.2734963132</v>
       </c>
       <c r="R43" t="n">
-        <v>6840587.571808969</v>
+        <v>6840680.169785046</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5783,7 +5783,7 @@
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverhögstubbe tall</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -5801,10 +5801,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111437554</v>
+        <v>111437562</v>
       </c>
       <c r="B44" t="n">
-        <v>77268</v>
+        <v>77267</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5817,21 +5817,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>228912</v>
+        <v>6446</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5841,10 +5841,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>408667.1039417735</v>
+        <v>408585.4262771023</v>
       </c>
       <c r="R44" t="n">
-        <v>6840439.482232833</v>
+        <v>6840497.680978389</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5923,10 +5923,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111437578</v>
+        <v>111437568</v>
       </c>
       <c r="B45" t="n">
-        <v>89646</v>
+        <v>89558</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5939,21 +5939,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>65</v>
+        <v>1503</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>408556.755840479</v>
+        <v>408551.9518172013</v>
       </c>
       <c r="R45" t="n">
-        <v>6840402.999617545</v>
+        <v>6840633.894951201</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6167,10 +6167,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111437586</v>
+        <v>111437535</v>
       </c>
       <c r="B47" t="n">
-        <v>76918</v>
+        <v>77614</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6183,21 +6183,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6437</v>
+        <v>967</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Varglav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Letharia vulpina</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(L.) Hue</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -6207,10 +6207,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>408748.8506321483</v>
+        <v>408705.1153733243</v>
       </c>
       <c r="R47" t="n">
-        <v>6840814.316953106</v>
+        <v>6840474.086806908</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
